--- a/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
+++ b/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJSU\NEW_SEM\202\Project\fa20-cmpe-202-sec-02-team-project-team_3\SCRUM_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFFC50E-7523-4FD3-9D6C-69F825F84A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62043FF0-4E8D-4BBA-8010-17706E802968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Create the Class Diagram</t>
   </si>
   <si>
-    <t>Apporva, Pranjay</t>
-  </si>
-  <si>
     <t>Swapnil</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Create README file </t>
-  </si>
-  <si>
-    <t>Apporva</t>
   </si>
   <si>
     <t>Pranjay</t>
@@ -226,6 +220,12 @@
   </si>
   <si>
     <t>Week #10 (16 hrs / week)</t>
+  </si>
+  <si>
+    <t>Apoorv , Pranjay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoorv </t>
   </si>
 </sst>
 </file>
@@ -606,24 +606,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,25 +630,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2010,109 +2010,109 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="38" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="38" t="s">
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="41" t="s">
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="38" t="s">
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="39"/>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="42"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="44"/>
     </row>
     <row r="2" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>48</v>
+      <c r="D2" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2326,10 +2326,10 @@
       </c>
     </row>
     <row r="3" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="47"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="7">
         <v>44101</v>
       </c>
@@ -2543,9 +2543,9 @@
       <c r="BW3" s="9"/>
     </row>
     <row r="4" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>160</v>
@@ -2831,9 +2831,9 @@
       </c>
     </row>
     <row r="5" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="10">
         <v>160</v>
       </c>
@@ -2954,14 +2954,14 @@
       </c>
     </row>
     <row r="6" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D6" s="17">
         <v>8</v>
@@ -3046,12 +3046,12 @@
       <c r="BV6" s="30"/>
     </row>
     <row r="7" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="17">
         <v>4</v>
@@ -3132,12 +3132,12 @@
       <c r="BV7" s="30"/>
     </row>
     <row r="8" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="17">
         <v>8</v>
@@ -3222,12 +3222,12 @@
       <c r="BV8" s="30"/>
     </row>
     <row r="9" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="17">
         <v>4</v>
@@ -3308,12 +3308,12 @@
       <c r="BV9" s="30"/>
     </row>
     <row r="10" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="17">
         <v>4</v>
@@ -3392,12 +3392,12 @@
       <c r="BV10" s="30"/>
     </row>
     <row r="11" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="54" t="s">
-        <v>51</v>
+      <c r="A11" s="46"/>
+      <c r="B11" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D11" s="17">
         <v>8</v>
@@ -3478,12 +3478,12 @@
       <c r="BV11" s="30"/>
     </row>
     <row r="12" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="54" t="s">
-        <v>52</v>
+      <c r="A12" s="46"/>
+      <c r="B12" s="40" t="s">
+        <v>50</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>53</v>
+      <c r="C12" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="17">
         <v>8</v>
@@ -3560,12 +3560,12 @@
       <c r="BV12" s="30"/>
     </row>
     <row r="13" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>49</v>
+      <c r="A13" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="55" t="s">
-        <v>36</v>
+      <c r="C13" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="17">
         <v>20</v>
@@ -3642,10 +3642,10 @@
       <c r="BV13" s="30"/>
     </row>
     <row r="14" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="55" t="s">
-        <v>44</v>
+      <c r="C14" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="17">
         <v>20</v>
@@ -3722,7 +3722,7 @@
       <c r="BV14" s="30"/>
     </row>
     <row r="15" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
@@ -3800,12 +3800,12 @@
       <c r="BV15" s="30"/>
     </row>
     <row r="16" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>55</v>
+      <c r="A16" s="51" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="55" t="s">
-        <v>45</v>
+      <c r="C16" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="17">
         <v>10</v>
@@ -3882,10 +3882,10 @@
       <c r="BV16" s="30"/>
     </row>
     <row r="17" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="55" t="s">
-        <v>37</v>
+      <c r="C17" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="17">
         <v>10</v>
@@ -3962,10 +3962,10 @@
       <c r="BV17" s="30"/>
     </row>
     <row r="18" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="55" t="s">
-        <v>39</v>
+      <c r="C18" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="17">
         <v>20</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="21" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="22" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="23" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="24" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -4254,10 +4254,10 @@
       <c r="BJ25" s="34"/>
     </row>
     <row r="26" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>50</v>
+      <c r="A26" s="38" t="s">
+        <v>48</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="39">
         <v>16</v>
       </c>
       <c r="C26" s="31"/>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="27" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="35">
         <v>160</v>
@@ -29748,6 +29748,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -29759,12 +29765,6 @@
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
+++ b/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJSU\NEW_SEM\202\Project\fa20-cmpe-202-sec-02-team-project-team_3\SCRUM_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62043FF0-4E8D-4BBA-8010-17706E802968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8592FE25-1873-49BD-9B29-2A9B57088324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
-    <sheet name="Burndown" sheetId="2" r:id="rId2"/>
+    <sheet name="Overall_Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -616,28 +616,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,10 +633,25 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,7 +1995,9 @@
   </sheetPr>
   <dimension ref="A1:BW1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2010,108 +2012,108 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="50"/>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
       <c r="R1" s="50"/>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
       <c r="Y1" s="50"/>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
       <c r="AM1" s="50"/>
-      <c r="AN1" s="48" t="s">
+      <c r="AN1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="49" t="s">
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
       <c r="BA1" s="50"/>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="49" t="s">
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43"/>
-      <c r="BM1" s="43"/>
-      <c r="BN1" s="43"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
       <c r="BO1" s="50"/>
-      <c r="BP1" s="42" t="s">
+      <c r="BP1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
-      <c r="BS1" s="43"/>
-      <c r="BT1" s="43"/>
-      <c r="BU1" s="43"/>
-      <c r="BV1" s="44"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="54"/>
     </row>
     <row r="2" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2326,10 +2328,10 @@
       </c>
     </row>
     <row r="3" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="7">
         <v>44101</v>
       </c>
@@ -2543,9 +2545,9 @@
       <c r="BW3" s="9"/>
     </row>
     <row r="4" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>160</v>
@@ -2831,9 +2833,9 @@
       </c>
     </row>
     <row r="5" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="10">
         <v>160</v>
       </c>
@@ -2954,7 +2956,7 @@
       </c>
     </row>
     <row r="6" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3046,7 +3048,7 @@
       <c r="BV6" s="30"/>
     </row>
     <row r="7" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="15" t="s">
         <v>39</v>
       </c>
@@ -3132,7 +3134,7 @@
       <c r="BV7" s="30"/>
     </row>
     <row r="8" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
@@ -3222,7 +3224,7 @@
       <c r="BV8" s="30"/>
     </row>
     <row r="9" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
@@ -3308,7 +3310,7 @@
       <c r="BV9" s="30"/>
     </row>
     <row r="10" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="15" t="s">
         <v>41</v>
       </c>
@@ -3392,7 +3394,7 @@
       <c r="BV10" s="30"/>
     </row>
     <row r="11" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="40" t="s">
         <v>49</v>
       </c>
@@ -3478,7 +3480,7 @@
       <c r="BV11" s="30"/>
     </row>
     <row r="12" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="40" t="s">
         <v>50</v>
       </c>
@@ -3560,7 +3562,7 @@
       <c r="BV12" s="30"/>
     </row>
     <row r="13" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="15"/>
@@ -3642,7 +3644,7 @@
       <c r="BV13" s="30"/>
     </row>
     <row r="14" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="15"/>
       <c r="C14" s="41" t="s">
         <v>42</v>
@@ -3722,7 +3724,7 @@
       <c r="BV14" s="30"/>
     </row>
     <row r="15" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
@@ -3800,7 +3802,7 @@
       <c r="BV15" s="30"/>
     </row>
     <row r="16" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="15"/>
@@ -3882,7 +3884,7 @@
       <c r="BV16" s="30"/>
     </row>
     <row r="17" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="15"/>
       <c r="C17" s="41" t="s">
         <v>36</v>
@@ -3962,7 +3964,7 @@
       <c r="BV17" s="30"/>
     </row>
     <row r="18" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="15"/>
       <c r="C18" s="41" t="s">
         <v>38</v>
@@ -29748,12 +29750,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -29765,6 +29761,12 @@
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29778,8 +29780,8 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
+++ b/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJSU\NEW_SEM\202\Project\fa20-cmpe-202-sec-02-team-project-team_3\SCRUM_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8592FE25-1873-49BD-9B29-2A9B57088324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305FC1AA-7B2D-4153-9151-98ED178A10DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Create Project TaskBoard with known Tasks on GitHub</t>
   </si>
   <si>
-    <t>Create SCRUM sheet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create README file </t>
   </si>
   <si>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t>Create UI Wireframe</t>
-  </si>
-  <si>
-    <t>Pranav, Swapnil</t>
   </si>
   <si>
     <t>Week #1 (16 hrs / week)</t>
@@ -226,6 +220,21 @@
   </si>
   <si>
     <t xml:space="preserve">Apoorv </t>
+  </si>
+  <si>
+    <t>Final Documentation</t>
+  </si>
+  <si>
+    <t>Frontend Design</t>
+  </si>
+  <si>
+    <t>Pranjay, Swapnil</t>
+  </si>
+  <si>
+    <t>Maintain Project Journal</t>
+  </si>
+  <si>
+    <t>Maintain SCRUM sheet</t>
   </si>
 </sst>
 </file>
@@ -515,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -616,13 +625,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,24 +657,24 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,37 +1446,37 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>146</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0</c:v>
@@ -1993,11 +2017,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BW1005"/>
+  <dimension ref="A1:BW1014"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2012,109 +2034,109 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="56" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="57" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="56" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="57" t="s">
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="56" t="s">
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="57" t="s">
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="56" t="s">
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="54"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="44"/>
     </row>
     <row r="2" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>46</v>
+      <c r="D2" s="56" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2328,10 +2350,10 @@
       </c>
     </row>
     <row r="3" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="7">
         <v>44101</v>
       </c>
@@ -2545,9 +2567,9 @@
       <c r="BW3" s="9"/>
     </row>
     <row r="4" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>160</v>
@@ -2833,67 +2855,67 @@
       </c>
     </row>
     <row r="5" spans="1:75" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="10">
         <v>160</v>
       </c>
       <c r="E5" s="11">
-        <f>160-SUM(E6:E18)</f>
+        <f>160-SUM(E6:E27)</f>
         <v>160</v>
       </c>
       <c r="F5" s="12">
-        <f>E5 - SUM(F6:F18)</f>
+        <f>E5 - SUM(F6:F27)</f>
         <v>158</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:R5" si="2">F5 - SUM(G6:G18)</f>
+        <f t="shared" ref="G5:R5" si="2">F5 - SUM(G6:G27)</f>
         <v>154</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P5" s="12">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="12">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R5" s="12">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="12"/>
@@ -2956,14 +2978,14 @@
       </c>
     </row>
     <row r="6" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="17">
         <v>8</v>
@@ -3048,7 +3070,7 @@
       <c r="BV6" s="30"/>
     </row>
     <row r="7" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="15" t="s">
         <v>39</v>
       </c>
@@ -3134,12 +3156,12 @@
       <c r="BV7" s="30"/>
     </row>
     <row r="8" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="17">
         <v>8</v>
@@ -3224,9 +3246,9 @@
       <c r="BV8" s="30"/>
     </row>
     <row r="9" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="15" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>36</v>
@@ -3310,9 +3332,9 @@
       <c r="BV9" s="30"/>
     </row>
     <row r="10" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>36</v>
@@ -3342,7 +3364,9 @@
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
-      <c r="Y10" s="28"/>
+      <c r="Y10" s="28">
+        <v>2</v>
+      </c>
       <c r="Z10" s="29"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
@@ -3394,12 +3418,12 @@
       <c r="BV10" s="30"/>
     </row>
     <row r="11" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="17">
         <v>8</v>
@@ -3480,94 +3504,114 @@
       <c r="BV11" s="30"/>
     </row>
     <row r="12" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="40" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D12" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
       <c r="L12" s="21"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
+      <c r="O12" s="22">
+        <v>1</v>
+      </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="27"/>
+      <c r="V12" s="27">
+        <v>1</v>
+      </c>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
       <c r="Y12" s="28"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
+      <c r="AC12" s="30">
+        <v>1</v>
+      </c>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
       <c r="AG12" s="25"/>
       <c r="AH12" s="26"/>
       <c r="AI12" s="26"/>
-      <c r="AJ12" s="27"/>
+      <c r="AJ12" s="27">
+        <v>1</v>
+      </c>
       <c r="AK12" s="27"/>
       <c r="AL12" s="27"/>
       <c r="AM12" s="28"/>
       <c r="AN12" s="29"/>
       <c r="AO12" s="30"/>
       <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
+      <c r="AQ12" s="30">
+        <v>1</v>
+      </c>
       <c r="AR12" s="30"/>
       <c r="AS12" s="30"/>
       <c r="AT12" s="30"/>
       <c r="AU12" s="25"/>
       <c r="AV12" s="26"/>
       <c r="AW12" s="26"/>
-      <c r="AX12" s="27"/>
+      <c r="AX12" s="27">
+        <v>1</v>
+      </c>
       <c r="AY12" s="27"/>
       <c r="AZ12" s="27"/>
       <c r="BA12" s="28"/>
       <c r="BB12" s="29"/>
       <c r="BC12" s="30"/>
       <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
+      <c r="BE12" s="30">
+        <v>1</v>
+      </c>
       <c r="BF12" s="30"/>
       <c r="BG12" s="30"/>
       <c r="BH12" s="30"/>
       <c r="BI12" s="25"/>
       <c r="BJ12" s="26"/>
       <c r="BK12" s="26"/>
-      <c r="BL12" s="27"/>
+      <c r="BL12" s="27">
+        <v>1</v>
+      </c>
       <c r="BM12" s="27"/>
       <c r="BN12" s="27"/>
       <c r="BO12" s="28"/>
       <c r="BP12" s="29"/>
       <c r="BQ12" s="30"/>
       <c r="BR12" s="30"/>
-      <c r="BS12" s="30"/>
+      <c r="BS12" s="30">
+        <v>1</v>
+      </c>
       <c r="BT12" s="30"/>
       <c r="BU12" s="30"/>
       <c r="BV12" s="30"/>
     </row>
     <row r="13" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>47</v>
+      <c r="A13" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="17">
         <v>20</v>
@@ -3644,10 +3688,10 @@
       <c r="BV13" s="30"/>
     </row>
     <row r="14" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="15"/>
       <c r="C14" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="17">
         <v>20</v>
@@ -3724,7 +3768,7 @@
       <c r="BV14" s="30"/>
     </row>
     <row r="15" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
@@ -3802,39 +3846,47 @@
       <c r="BV15" s="30"/>
     </row>
     <row r="16" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>53</v>
+      <c r="A16" s="61" t="s">
+        <v>64</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="24"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="19"/>
+      <c r="T16" s="26">
+        <v>2</v>
+      </c>
+      <c r="U16" s="26"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
+      <c r="X16" s="27">
+        <v>2</v>
+      </c>
       <c r="Y16" s="28"/>
       <c r="Z16" s="29"/>
-      <c r="AA16" s="30"/>
+      <c r="AA16" s="30">
+        <v>2</v>
+      </c>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
@@ -3843,26 +3895,36 @@
       <c r="AG16" s="25"/>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26"/>
-      <c r="AJ16" s="27"/>
+      <c r="AJ16" s="27">
+        <v>2</v>
+      </c>
       <c r="AK16" s="27"/>
       <c r="AL16" s="27"/>
       <c r="AM16" s="28"/>
       <c r="AN16" s="29"/>
-      <c r="AO16" s="30"/>
+      <c r="AO16" s="30">
+        <v>2</v>
+      </c>
       <c r="AP16" s="30"/>
       <c r="AQ16" s="30"/>
       <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
+      <c r="AS16" s="30">
+        <v>2</v>
+      </c>
       <c r="AT16" s="30"/>
       <c r="AU16" s="25"/>
       <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
+      <c r="AW16" s="26">
+        <v>2</v>
+      </c>
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
       <c r="AZ16" s="27"/>
       <c r="BA16" s="28"/>
       <c r="BB16" s="29"/>
-      <c r="BC16" s="30"/>
+      <c r="BC16" s="30">
+        <v>2</v>
+      </c>
       <c r="BD16" s="30"/>
       <c r="BE16" s="30"/>
       <c r="BF16" s="30"/>
@@ -3870,7 +3932,9 @@
       <c r="BH16" s="30"/>
       <c r="BI16" s="25"/>
       <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
+      <c r="BK16" s="26">
+        <v>2</v>
+      </c>
       <c r="BL16" s="27"/>
       <c r="BM16" s="27"/>
       <c r="BN16" s="27"/>
@@ -3879,12 +3943,14 @@
       <c r="BQ16" s="30"/>
       <c r="BR16" s="30"/>
       <c r="BS16" s="30"/>
-      <c r="BT16" s="30"/>
+      <c r="BT16" s="30">
+        <v>2</v>
+      </c>
       <c r="BU16" s="30"/>
       <c r="BV16" s="30"/>
     </row>
     <row r="17" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="15"/>
       <c r="C17" s="41" t="s">
         <v>36</v>
@@ -3892,23 +3958,23 @@
       <c r="D17" s="17">
         <v>10</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="24"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
-      <c r="U17" s="19"/>
+      <c r="U17" s="26"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
@@ -3964,7 +4030,7 @@
       <c r="BV17" s="30"/>
     </row>
     <row r="18" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="15"/>
       <c r="C18" s="41" t="s">
         <v>38</v>
@@ -3972,23 +4038,23 @@
       <c r="D18" s="17">
         <v>20</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="20"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="24"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
-      <c r="U18" s="19"/>
+      <c r="U18" s="26"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
       <c r="X18" s="27"/>
@@ -4043,284 +4109,731 @@
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
     </row>
-    <row r="19" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-    </row>
-    <row r="20" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-    </row>
-    <row r="21" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-    </row>
-    <row r="22" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    <row r="19" spans="1:74" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>44</v>
+      <c r="D19" s="17">
+        <v>10</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="BI22" s="34"/>
-      <c r="BJ22" s="34"/>
-    </row>
-    <row r="23" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-    </row>
-    <row r="24" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="30"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="30"/>
+      <c r="BH19" s="30"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="26"/>
+      <c r="BL19" s="27"/>
+      <c r="BM19" s="27"/>
+      <c r="BN19" s="27"/>
+      <c r="BO19" s="28"/>
+      <c r="BP19" s="29"/>
+      <c r="BQ19" s="30"/>
+      <c r="BR19" s="30"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
+      <c r="BU19" s="30"/>
+      <c r="BV19" s="30"/>
+    </row>
+    <row r="20" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>44</v>
+      <c r="D20" s="17">
+        <v>10</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="BI24" s="34"/>
-      <c r="BJ24" s="34"/>
-    </row>
-    <row r="25" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="BI25" s="34"/>
-      <c r="BJ25" s="34"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="27"/>
+      <c r="BM20" s="27"/>
+      <c r="BN20" s="27"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="30"/>
+      <c r="BR20" s="30"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
+      <c r="BU20" s="30"/>
+      <c r="BV20" s="30"/>
+    </row>
+    <row r="21" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="17">
+        <v>20</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="30"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="27"/>
+      <c r="BM21" s="27"/>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="28"/>
+      <c r="BP21" s="29"/>
+      <c r="BQ21" s="30"/>
+      <c r="BR21" s="30"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
+      <c r="BU21" s="30"/>
+      <c r="BV21" s="30"/>
+    </row>
+    <row r="22" spans="1:74" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="30"/>
+      <c r="AT22" s="30"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
+      <c r="BH22" s="30"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="27"/>
+      <c r="BM22" s="27"/>
+      <c r="BN22" s="27"/>
+      <c r="BO22" s="28"/>
+      <c r="BP22" s="29"/>
+      <c r="BQ22" s="30"/>
+      <c r="BR22" s="30"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
+      <c r="BU22" s="30"/>
+      <c r="BV22" s="30"/>
+    </row>
+    <row r="23" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="17">
+        <v>10</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="27"/>
+      <c r="BM23" s="27"/>
+      <c r="BN23" s="27"/>
+      <c r="BO23" s="28"/>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="30"/>
+      <c r="BR23" s="30"/>
+      <c r="BS23" s="30"/>
+      <c r="BT23" s="30"/>
+      <c r="BU23" s="30"/>
+      <c r="BV23" s="30"/>
+    </row>
+    <row r="24" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="17">
+        <v>20</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="27"/>
+      <c r="BM24" s="27"/>
+      <c r="BN24" s="27"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="30"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="BT24" s="30"/>
+      <c r="BU24" s="30"/>
+      <c r="BV24" s="30"/>
+    </row>
+    <row r="25" spans="1:74" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="17">
+        <v>10</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="30"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="30"/>
+      <c r="BD25" s="30"/>
+      <c r="BE25" s="30"/>
+      <c r="BF25" s="30"/>
+      <c r="BG25" s="30"/>
+      <c r="BH25" s="30"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="27"/>
+      <c r="BM25" s="27"/>
+      <c r="BN25" s="27"/>
+      <c r="BO25" s="28"/>
+      <c r="BP25" s="29"/>
+      <c r="BQ25" s="30"/>
+      <c r="BR25" s="30"/>
+      <c r="BS25" s="30"/>
+      <c r="BT25" s="30"/>
+      <c r="BU25" s="30"/>
+      <c r="BV25" s="30"/>
     </row>
     <row r="26" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>48</v>
+      <c r="A26" s="59"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="41" t="s">
+        <v>36</v>
       </c>
-      <c r="B26" s="39">
-        <v>16</v>
+      <c r="D26" s="17">
+        <v>10</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="34"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="30"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="27"/>
+      <c r="BM26" s="27"/>
+      <c r="BN26" s="27"/>
+      <c r="BO26" s="28"/>
+      <c r="BP26" s="29"/>
+      <c r="BQ26" s="30"/>
+      <c r="BR26" s="30"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
     </row>
     <row r="27" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>45</v>
+      <c r="A27" s="60"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="41" t="s">
+        <v>38</v>
       </c>
-      <c r="B27" s="35">
-        <v>160</v>
+      <c r="D27" s="17">
+        <v>20</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="29"/>
+      <c r="BC27" s="30"/>
+      <c r="BD27" s="30"/>
+      <c r="BE27" s="30"/>
+      <c r="BF27" s="30"/>
+      <c r="BG27" s="30"/>
+      <c r="BH27" s="30"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="27"/>
+      <c r="BM27" s="27"/>
+      <c r="BN27" s="27"/>
+      <c r="BO27" s="28"/>
+      <c r="BP27" s="29"/>
+      <c r="BQ27" s="30"/>
+      <c r="BR27" s="30"/>
+      <c r="BS27" s="30"/>
+      <c r="BT27" s="30"/>
+      <c r="BU27" s="30"/>
+      <c r="BV27" s="30"/>
     </row>
     <row r="28" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -4347,6 +4860,10 @@
       <c r="BJ28" s="34"/>
     </row>
     <row r="29" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -4373,6 +4890,12 @@
       <c r="BJ29" s="34"/>
     </row>
     <row r="30" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -4399,6 +4922,12 @@
       <c r="BJ30" s="34"/>
     </row>
     <row r="31" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4425,6 +4954,12 @@
       <c r="BJ31" s="34"/>
     </row>
     <row r="32" spans="1:74" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -4450,7 +4985,13 @@
       <c r="BI32" s="34"/>
       <c r="BJ32" s="34"/>
     </row>
-    <row r="33" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -4476,7 +5017,9 @@
       <c r="BI33" s="34"/>
       <c r="BJ33" s="34"/>
     </row>
-    <row r="34" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -4502,7 +5045,13 @@
       <c r="BI34" s="34"/>
       <c r="BJ34" s="34"/>
     </row>
-    <row r="35" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="39">
+        <v>16</v>
+      </c>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -4528,7 +5077,13 @@
       <c r="BI35" s="34"/>
       <c r="BJ35" s="34"/>
     </row>
-    <row r="36" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="35">
+        <v>160</v>
+      </c>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -4554,7 +5109,8 @@
       <c r="BI36" s="34"/>
       <c r="BJ36" s="34"/>
     </row>
-    <row r="37" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -4580,7 +5136,7 @@
       <c r="BI37" s="34"/>
       <c r="BJ37" s="34"/>
     </row>
-    <row r="38" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -4606,7 +5162,7 @@
       <c r="BI38" s="34"/>
       <c r="BJ38" s="34"/>
     </row>
-    <row r="39" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -4632,7 +5188,7 @@
       <c r="BI39" s="34"/>
       <c r="BJ39" s="34"/>
     </row>
-    <row r="40" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
@@ -4658,7 +5214,7 @@
       <c r="BI40" s="34"/>
       <c r="BJ40" s="34"/>
     </row>
-    <row r="41" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
@@ -4684,7 +5240,7 @@
       <c r="BI41" s="34"/>
       <c r="BJ41" s="34"/>
     </row>
-    <row r="42" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -4710,7 +5266,7 @@
       <c r="BI42" s="34"/>
       <c r="BJ42" s="34"/>
     </row>
-    <row r="43" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
@@ -4736,7 +5292,7 @@
       <c r="BI43" s="34"/>
       <c r="BJ43" s="34"/>
     </row>
-    <row r="44" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
@@ -4762,7 +5318,7 @@
       <c r="BI44" s="34"/>
       <c r="BJ44" s="34"/>
     </row>
-    <row r="45" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -4788,7 +5344,7 @@
       <c r="BI45" s="34"/>
       <c r="BJ45" s="34"/>
     </row>
-    <row r="46" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
@@ -4814,7 +5370,7 @@
       <c r="BI46" s="34"/>
       <c r="BJ46" s="34"/>
     </row>
-    <row r="47" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
@@ -4840,7 +5396,7 @@
       <c r="BI47" s="34"/>
       <c r="BJ47" s="34"/>
     </row>
-    <row r="48" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
@@ -29748,8 +30304,248 @@
       <c r="BI1005" s="34"/>
       <c r="BJ1005" s="34"/>
     </row>
+    <row r="1006" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1006" s="31"/>
+      <c r="D1006" s="31"/>
+      <c r="E1006" s="31"/>
+      <c r="F1006" s="31"/>
+      <c r="G1006" s="31"/>
+      <c r="H1006" s="31"/>
+      <c r="I1006" s="31"/>
+      <c r="J1006" s="31"/>
+      <c r="K1006" s="31"/>
+      <c r="L1006" s="31"/>
+      <c r="M1006" s="31"/>
+      <c r="N1006" s="31"/>
+      <c r="O1006" s="31"/>
+      <c r="P1006" s="31"/>
+      <c r="Q1006" s="31"/>
+      <c r="R1006" s="31"/>
+      <c r="S1006" s="31"/>
+      <c r="T1006" s="31"/>
+      <c r="AG1006" s="34"/>
+      <c r="AH1006" s="34"/>
+      <c r="AU1006" s="34"/>
+      <c r="AV1006" s="34"/>
+      <c r="BI1006" s="34"/>
+      <c r="BJ1006" s="34"/>
+    </row>
+    <row r="1007" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1007" s="31"/>
+      <c r="D1007" s="31"/>
+      <c r="E1007" s="31"/>
+      <c r="F1007" s="31"/>
+      <c r="G1007" s="31"/>
+      <c r="H1007" s="31"/>
+      <c r="I1007" s="31"/>
+      <c r="J1007" s="31"/>
+      <c r="K1007" s="31"/>
+      <c r="L1007" s="31"/>
+      <c r="M1007" s="31"/>
+      <c r="N1007" s="31"/>
+      <c r="O1007" s="31"/>
+      <c r="P1007" s="31"/>
+      <c r="Q1007" s="31"/>
+      <c r="R1007" s="31"/>
+      <c r="S1007" s="31"/>
+      <c r="T1007" s="31"/>
+      <c r="AG1007" s="34"/>
+      <c r="AH1007" s="34"/>
+      <c r="AU1007" s="34"/>
+      <c r="AV1007" s="34"/>
+      <c r="BI1007" s="34"/>
+      <c r="BJ1007" s="34"/>
+    </row>
+    <row r="1008" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1008" s="31"/>
+      <c r="D1008" s="31"/>
+      <c r="E1008" s="31"/>
+      <c r="F1008" s="31"/>
+      <c r="G1008" s="31"/>
+      <c r="H1008" s="31"/>
+      <c r="I1008" s="31"/>
+      <c r="J1008" s="31"/>
+      <c r="K1008" s="31"/>
+      <c r="L1008" s="31"/>
+      <c r="M1008" s="31"/>
+      <c r="N1008" s="31"/>
+      <c r="O1008" s="31"/>
+      <c r="P1008" s="31"/>
+      <c r="Q1008" s="31"/>
+      <c r="R1008" s="31"/>
+      <c r="S1008" s="31"/>
+      <c r="T1008" s="31"/>
+      <c r="AG1008" s="34"/>
+      <c r="AH1008" s="34"/>
+      <c r="AU1008" s="34"/>
+      <c r="AV1008" s="34"/>
+      <c r="BI1008" s="34"/>
+      <c r="BJ1008" s="34"/>
+    </row>
+    <row r="1009" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1009" s="31"/>
+      <c r="D1009" s="31"/>
+      <c r="E1009" s="31"/>
+      <c r="F1009" s="31"/>
+      <c r="G1009" s="31"/>
+      <c r="H1009" s="31"/>
+      <c r="I1009" s="31"/>
+      <c r="J1009" s="31"/>
+      <c r="K1009" s="31"/>
+      <c r="L1009" s="31"/>
+      <c r="M1009" s="31"/>
+      <c r="N1009" s="31"/>
+      <c r="O1009" s="31"/>
+      <c r="P1009" s="31"/>
+      <c r="Q1009" s="31"/>
+      <c r="R1009" s="31"/>
+      <c r="S1009" s="31"/>
+      <c r="T1009" s="31"/>
+      <c r="AG1009" s="34"/>
+      <c r="AH1009" s="34"/>
+      <c r="AU1009" s="34"/>
+      <c r="AV1009" s="34"/>
+      <c r="BI1009" s="34"/>
+      <c r="BJ1009" s="34"/>
+    </row>
+    <row r="1010" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1010" s="31"/>
+      <c r="D1010" s="31"/>
+      <c r="E1010" s="31"/>
+      <c r="F1010" s="31"/>
+      <c r="G1010" s="31"/>
+      <c r="H1010" s="31"/>
+      <c r="I1010" s="31"/>
+      <c r="J1010" s="31"/>
+      <c r="K1010" s="31"/>
+      <c r="L1010" s="31"/>
+      <c r="M1010" s="31"/>
+      <c r="N1010" s="31"/>
+      <c r="O1010" s="31"/>
+      <c r="P1010" s="31"/>
+      <c r="Q1010" s="31"/>
+      <c r="R1010" s="31"/>
+      <c r="S1010" s="31"/>
+      <c r="T1010" s="31"/>
+      <c r="AG1010" s="34"/>
+      <c r="AH1010" s="34"/>
+      <c r="AU1010" s="34"/>
+      <c r="AV1010" s="34"/>
+      <c r="BI1010" s="34"/>
+      <c r="BJ1010" s="34"/>
+    </row>
+    <row r="1011" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1011" s="31"/>
+      <c r="D1011" s="31"/>
+      <c r="E1011" s="31"/>
+      <c r="F1011" s="31"/>
+      <c r="G1011" s="31"/>
+      <c r="H1011" s="31"/>
+      <c r="I1011" s="31"/>
+      <c r="J1011" s="31"/>
+      <c r="K1011" s="31"/>
+      <c r="L1011" s="31"/>
+      <c r="M1011" s="31"/>
+      <c r="N1011" s="31"/>
+      <c r="O1011" s="31"/>
+      <c r="P1011" s="31"/>
+      <c r="Q1011" s="31"/>
+      <c r="R1011" s="31"/>
+      <c r="S1011" s="31"/>
+      <c r="T1011" s="31"/>
+      <c r="AG1011" s="34"/>
+      <c r="AH1011" s="34"/>
+      <c r="AU1011" s="34"/>
+      <c r="AV1011" s="34"/>
+      <c r="BI1011" s="34"/>
+      <c r="BJ1011" s="34"/>
+    </row>
+    <row r="1012" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1012" s="31"/>
+      <c r="D1012" s="31"/>
+      <c r="E1012" s="31"/>
+      <c r="F1012" s="31"/>
+      <c r="G1012" s="31"/>
+      <c r="H1012" s="31"/>
+      <c r="I1012" s="31"/>
+      <c r="J1012" s="31"/>
+      <c r="K1012" s="31"/>
+      <c r="L1012" s="31"/>
+      <c r="M1012" s="31"/>
+      <c r="N1012" s="31"/>
+      <c r="O1012" s="31"/>
+      <c r="P1012" s="31"/>
+      <c r="Q1012" s="31"/>
+      <c r="R1012" s="31"/>
+      <c r="S1012" s="31"/>
+      <c r="T1012" s="31"/>
+      <c r="AG1012" s="34"/>
+      <c r="AH1012" s="34"/>
+      <c r="AU1012" s="34"/>
+      <c r="AV1012" s="34"/>
+      <c r="BI1012" s="34"/>
+      <c r="BJ1012" s="34"/>
+    </row>
+    <row r="1013" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1013" s="31"/>
+      <c r="D1013" s="31"/>
+      <c r="E1013" s="31"/>
+      <c r="F1013" s="31"/>
+      <c r="G1013" s="31"/>
+      <c r="H1013" s="31"/>
+      <c r="I1013" s="31"/>
+      <c r="J1013" s="31"/>
+      <c r="K1013" s="31"/>
+      <c r="L1013" s="31"/>
+      <c r="M1013" s="31"/>
+      <c r="N1013" s="31"/>
+      <c r="O1013" s="31"/>
+      <c r="P1013" s="31"/>
+      <c r="Q1013" s="31"/>
+      <c r="R1013" s="31"/>
+      <c r="S1013" s="31"/>
+      <c r="T1013" s="31"/>
+      <c r="AG1013" s="34"/>
+      <c r="AH1013" s="34"/>
+      <c r="AU1013" s="34"/>
+      <c r="AV1013" s="34"/>
+      <c r="BI1013" s="34"/>
+      <c r="BJ1013" s="34"/>
+    </row>
+    <row r="1014" spans="3:62" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1014" s="31"/>
+      <c r="D1014" s="31"/>
+      <c r="E1014" s="31"/>
+      <c r="F1014" s="31"/>
+      <c r="G1014" s="31"/>
+      <c r="H1014" s="31"/>
+      <c r="I1014" s="31"/>
+      <c r="J1014" s="31"/>
+      <c r="K1014" s="31"/>
+      <c r="L1014" s="31"/>
+      <c r="M1014" s="31"/>
+      <c r="N1014" s="31"/>
+      <c r="O1014" s="31"/>
+      <c r="P1014" s="31"/>
+      <c r="Q1014" s="31"/>
+      <c r="R1014" s="31"/>
+      <c r="S1014" s="31"/>
+      <c r="T1014" s="31"/>
+      <c r="AG1014" s="34"/>
+      <c r="AH1014" s="34"/>
+      <c r="AU1014" s="34"/>
+      <c r="AV1014" s="34"/>
+      <c r="BI1014" s="34"/>
+      <c r="BJ1014" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="BP1:BV1"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -29761,12 +30557,6 @@
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29780,7 +30570,7 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
+++ b/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJSU\NEW_SEM\202\Project\fa20-cmpe-202-sec-02-team-project-team_3\SCRUM_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A958B-96D0-4C86-B9E7-C7918FF19D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA90EB-A7AE-49A3-A0CB-6A16C37ED63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,24 +803,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,6 +836,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2371,7 +2371,9 @@
   </sheetPr>
   <dimension ref="A1:BX1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2388,109 +2390,109 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="58" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="59" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="58" t="s">
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="59" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="58" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="59" t="s">
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="58" t="s">
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="59" t="s">
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="52" t="s">
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="54"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="48"/>
     </row>
     <row r="2" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="59" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2705,11 +2707,11 @@
       </c>
     </row>
     <row r="3" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="7">
         <v>44101</v>
       </c>
@@ -2923,10 +2925,10 @@
       <c r="BX3" s="9"/>
     </row>
     <row r="4" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="62"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
         <v>160</v>
@@ -3212,10 +3214,10 @@
       </c>
     </row>
     <row r="5" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="63"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10">
         <f>SUM(E6:E46)</f>
         <v>160</v>
@@ -3505,7 +3507,7 @@
       </c>
     </row>
     <row r="6" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -3592,7 +3594,7 @@
       <c r="BW6" s="29"/>
     </row>
     <row r="7" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="44" t="s">
         <v>38</v>
       </c>
@@ -3679,7 +3681,7 @@
       <c r="BW7" s="29"/>
     </row>
     <row r="8" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="44" t="s">
         <v>36</v>
       </c>
@@ -3764,7 +3766,7 @@
       <c r="BW8" s="29"/>
     </row>
     <row r="9" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="44" t="s">
         <v>61</v>
       </c>
@@ -3855,7 +3857,7 @@
       <c r="BW9" s="29"/>
     </row>
     <row r="10" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="44" t="s">
         <v>39</v>
       </c>
@@ -3944,7 +3946,7 @@
       <c r="BW10" s="29"/>
     </row>
     <row r="11" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="45" t="s">
         <v>46</v>
       </c>
@@ -4031,7 +4033,7 @@
       <c r="BW11" s="29"/>
     </row>
     <row r="12" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="45" t="s">
         <v>60</v>
       </c>
@@ -4122,7 +4124,7 @@
       <c r="BW12" s="29"/>
     </row>
     <row r="13" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="45" t="s">
         <v>62</v>
       </c>
@@ -4213,7 +4215,7 @@
       <c r="BW13" s="29"/>
     </row>
     <row r="14" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="45" t="s">
         <v>104</v>
       </c>
@@ -4298,7 +4300,7 @@
       <c r="BW14" s="29"/>
     </row>
     <row r="15" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -4387,7 +4389,7 @@
       <c r="BW15" s="29"/>
     </row>
     <row r="16" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="14" t="s">
         <v>64</v>
       </c>
@@ -4476,7 +4478,7 @@
       <c r="BW16" s="29"/>
     </row>
     <row r="17" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="14" t="s">
         <v>65</v>
       </c>
@@ -4565,7 +4567,7 @@
       <c r="BW17" s="29"/>
     </row>
     <row r="18" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="14" t="s">
         <v>66</v>
       </c>
@@ -4654,7 +4656,7 @@
       <c r="BW18" s="29"/>
     </row>
     <row r="19" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="61" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -4745,7 +4747,7 @@
       <c r="BW19" s="29"/>
     </row>
     <row r="20" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="44" t="s">
         <v>71</v>
       </c>
@@ -4834,7 +4836,7 @@
       <c r="BW20" s="29"/>
     </row>
     <row r="21" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="63" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4925,7 +4927,7 @@
       <c r="BW21" s="29"/>
     </row>
     <row r="22" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="14" t="s">
         <v>81</v>
       </c>
@@ -5014,7 +5016,7 @@
       <c r="BW22" s="29"/>
     </row>
     <row r="23" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="14" t="s">
         <v>82</v>
       </c>
@@ -5103,7 +5105,7 @@
       <c r="BW23" s="29"/>
     </row>
     <row r="24" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="14" t="s">
         <v>83</v>
       </c>
@@ -5192,7 +5194,7 @@
       </c>
     </row>
     <row r="25" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="39" t="s">
         <v>85</v>
       </c>
@@ -5281,7 +5283,7 @@
       <c r="BW25" s="29"/>
     </row>
     <row r="26" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="39" t="s">
         <v>86</v>
       </c>
@@ -5370,7 +5372,7 @@
       <c r="BW26" s="29"/>
     </row>
     <row r="27" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="39" t="s">
         <v>87</v>
       </c>
@@ -5459,7 +5461,7 @@
       <c r="BW27" s="29"/>
     </row>
     <row r="28" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="39" t="s">
         <v>88</v>
       </c>
@@ -5548,7 +5550,7 @@
       <c r="BW28" s="29"/>
     </row>
     <row r="29" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="66" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -5639,7 +5641,7 @@
       <c r="BW29" s="29"/>
     </row>
     <row r="30" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="39" t="s">
         <v>90</v>
       </c>
@@ -5728,7 +5730,7 @@
       <c r="BW30" s="29"/>
     </row>
     <row r="31" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="39" t="s">
         <v>91</v>
       </c>
@@ -5815,7 +5817,7 @@
       <c r="BW31" s="29"/>
     </row>
     <row r="32" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="39" t="s">
         <v>92</v>
       </c>
@@ -5906,7 +5908,7 @@
       <c r="BW32" s="29"/>
     </row>
     <row r="33" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="39" t="s">
         <v>93</v>
       </c>
@@ -5995,7 +5997,7 @@
       <c r="BW33" s="29"/>
     </row>
     <row r="34" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="39" t="s">
         <v>94</v>
       </c>
@@ -6084,7 +6086,7 @@
       <c r="BW34" s="29"/>
     </row>
     <row r="35" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="39" t="s">
         <v>95</v>
       </c>
@@ -6173,7 +6175,7 @@
       <c r="BW35" s="29"/>
     </row>
     <row r="36" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="39" t="s">
         <v>96</v>
       </c>
@@ -6262,7 +6264,7 @@
       <c r="BW36" s="29"/>
     </row>
     <row r="37" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="39" t="s">
         <v>97</v>
       </c>
@@ -6351,7 +6353,7 @@
       <c r="BW37" s="29"/>
     </row>
     <row r="38" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="39" t="s">
         <v>98</v>
       </c>
@@ -6442,7 +6444,7 @@
       <c r="BW38" s="29"/>
     </row>
     <row r="39" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="39" t="s">
         <v>99</v>
       </c>
@@ -6531,7 +6533,7 @@
       <c r="BW39" s="29"/>
     </row>
     <row r="40" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="39" t="s">
         <v>100</v>
       </c>
@@ -6620,7 +6622,7 @@
       <c r="BW40" s="29"/>
     </row>
     <row r="41" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="66" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -6713,7 +6715,7 @@
       <c r="BW41" s="29"/>
     </row>
     <row r="42" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="14" t="s">
         <v>75</v>
       </c>
@@ -6804,7 +6806,7 @@
       <c r="BW42" s="29"/>
     </row>
     <row r="43" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="14" t="s">
         <v>76</v>
       </c>
@@ -6893,7 +6895,7 @@
       <c r="BW43" s="29"/>
     </row>
     <row r="44" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="14" t="s">
         <v>77</v>
       </c>
@@ -6984,7 +6986,7 @@
       <c r="BW44" s="29"/>
     </row>
     <row r="45" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="14" t="s">
         <v>78</v>
       </c>
@@ -7075,7 +7077,7 @@
       <c r="BW45" s="29"/>
     </row>
     <row r="46" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="14" t="s">
         <v>79</v>
       </c>
@@ -32879,6 +32881,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="BQ1:BW1"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="AO1:AU1"/>
@@ -32894,11 +32901,6 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
+++ b/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJSU\NEW_SEM\202\Project\fa20-cmpe-202-sec-02-team-project-team_3\SCRUM_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA90EB-A7AE-49A3-A0CB-6A16C37ED63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EBF6DD-25BB-4202-AD0D-321A4E707B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>Power point Presentation</t>
+  </si>
+  <si>
+    <t>API documentation</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Cloud Deployment</t>
+  </si>
+  <si>
+    <t>Deploy the project on cloud</t>
+  </si>
+  <si>
+    <t>Apoorv , Pranav</t>
   </si>
 </sst>
 </file>
@@ -698,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -853,6 +868,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,13 +1711,13 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>102</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>98</c:v>
@@ -1708,127 +1726,127 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>90</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>84</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>74</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>66</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>52</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0</c:v>
@@ -2369,11 +2387,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BX1033"/>
+  <dimension ref="A1:BX1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3219,15 +3235,15 @@
       <c r="C5" s="43"/>
       <c r="D5" s="57"/>
       <c r="E5" s="10">
-        <f>SUM(E6:E46)</f>
+        <f>SUM(E6:E48)</f>
         <v>160</v>
       </c>
       <c r="F5" s="11">
-        <f>160-SUM(F6:F46)</f>
+        <f>160-SUM(F6:F48)</f>
         <v>160</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:S5" si="2">F5 - SUM(G6:G46)</f>
+        <f t="shared" ref="G5:S5" si="2">F5 - SUM(G6:G48)</f>
         <v>160</v>
       </c>
       <c r="H5" s="12">
@@ -3279,7 +3295,7 @@
         <v>129</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" ref="T5:AG5" si="3">S5 - SUM(T6:T46)</f>
+        <f t="shared" ref="T5:AG5" si="3">S5 - SUM(T6:T48)</f>
         <v>129</v>
       </c>
       <c r="U5" s="12">
@@ -3320,187 +3336,187 @@
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" ref="AH5" si="4">AG5 - SUM(AH6:AH46)</f>
+        <f t="shared" ref="AH5" si="4">AG5 - SUM(AH6:AH48)</f>
         <v>98</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" ref="AI5" si="5">AH5 - SUM(AI6:AI46)</f>
-        <v>97</v>
+        <f t="shared" ref="AI5" si="5">AH5 - SUM(AI6:AI48)</f>
+        <v>98</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" ref="AJ5" si="6">AI5 - SUM(AJ6:AJ46)</f>
-        <v>92</v>
+        <f t="shared" ref="AJ5" si="6">AI5 - SUM(AJ6:AJ48)</f>
+        <v>90</v>
       </c>
       <c r="AK5" s="12">
-        <f t="shared" ref="AK5" si="7">AJ5 - SUM(AK6:AK46)</f>
-        <v>90</v>
+        <f t="shared" ref="AK5" si="7">AJ5 - SUM(AK6:AK48)</f>
+        <v>88</v>
       </c>
       <c r="AL5" s="12">
-        <f t="shared" ref="AL5" si="8">AK5 - SUM(AL6:AL46)</f>
-        <v>88</v>
+        <f t="shared" ref="AL5" si="8">AK5 - SUM(AL6:AL48)</f>
+        <v>86</v>
       </c>
       <c r="AM5" s="12">
-        <f t="shared" ref="AM5" si="9">AL5 - SUM(AM6:AM46)</f>
-        <v>84</v>
+        <f t="shared" ref="AM5" si="9">AL5 - SUM(AM6:AM48)</f>
+        <v>82</v>
       </c>
       <c r="AN5" s="12">
-        <f t="shared" ref="AN5" si="10">AM5 - SUM(AN6:AN46)</f>
-        <v>84</v>
+        <f t="shared" ref="AN5" si="10">AM5 - SUM(AN6:AN48)</f>
+        <v>82</v>
       </c>
       <c r="AO5" s="12">
-        <f t="shared" ref="AO5" si="11">AN5 - SUM(AO6:AO46)</f>
-        <v>84</v>
+        <f t="shared" ref="AO5" si="11">AN5 - SUM(AO6:AO48)</f>
+        <v>82</v>
       </c>
       <c r="AP5" s="12">
-        <f t="shared" ref="AP5" si="12">AO5 - SUM(AP6:AP46)</f>
-        <v>80</v>
+        <f t="shared" ref="AP5" si="12">AO5 - SUM(AP6:AP48)</f>
+        <v>78</v>
       </c>
       <c r="AQ5" s="12">
-        <f t="shared" ref="AQ5" si="13">AP5 - SUM(AQ6:AQ46)</f>
-        <v>76</v>
+        <f t="shared" ref="AQ5" si="13">AP5 - SUM(AQ6:AQ48)</f>
+        <v>72</v>
       </c>
       <c r="AR5" s="12">
-        <f t="shared" ref="AR5" si="14">AQ5 - SUM(AR6:AR46)</f>
-        <v>74</v>
+        <f t="shared" ref="AR5" si="14">AQ5 - SUM(AR6:AR48)</f>
+        <v>70</v>
       </c>
       <c r="AS5" s="12">
-        <f t="shared" ref="AS5" si="15">AR5 - SUM(AS6:AS46)</f>
-        <v>74</v>
+        <f t="shared" ref="AS5" si="15">AR5 - SUM(AS6:AS48)</f>
+        <v>70</v>
       </c>
       <c r="AT5" s="12">
-        <f t="shared" ref="AT5" si="16">AS5 - SUM(AT6:AT46)</f>
-        <v>68</v>
+        <f t="shared" ref="AT5" si="16">AS5 - SUM(AT6:AT48)</f>
+        <v>65</v>
       </c>
       <c r="AU5" s="12">
-        <f t="shared" ref="AU5" si="17">AT5 - SUM(AU6:AU46)</f>
-        <v>68</v>
+        <f t="shared" ref="AU5" si="17">AT5 - SUM(AU6:AU48)</f>
+        <v>65</v>
       </c>
       <c r="AV5" s="12">
-        <f t="shared" ref="AV5" si="18">AU5 - SUM(AV6:AV46)</f>
-        <v>68</v>
+        <f t="shared" ref="AV5" si="18">AU5 - SUM(AV6:AV48)</f>
+        <v>65</v>
       </c>
       <c r="AW5" s="12">
-        <f t="shared" ref="AW5" si="19">AV5 - SUM(AW6:AW46)</f>
-        <v>66</v>
+        <f t="shared" ref="AW5" si="19">AV5 - SUM(AW6:AW48)</f>
+        <v>63</v>
       </c>
       <c r="AX5" s="12">
-        <f t="shared" ref="AX5" si="20">AW5 - SUM(AX6:AX46)</f>
-        <v>62</v>
+        <f t="shared" ref="AX5" si="20">AW5 - SUM(AX6:AX48)</f>
+        <v>57</v>
       </c>
       <c r="AY5" s="12">
-        <f t="shared" ref="AY5" si="21">AX5 - SUM(AY6:AY46)</f>
-        <v>61</v>
+        <f t="shared" ref="AY5" si="21">AX5 - SUM(AY6:AY48)</f>
+        <v>56</v>
       </c>
       <c r="AZ5" s="12">
-        <f t="shared" ref="AZ5" si="22">AY5 - SUM(AZ6:AZ46)</f>
-        <v>56</v>
+        <f t="shared" ref="AZ5" si="22">AY5 - SUM(AZ6:AZ48)</f>
+        <v>52</v>
       </c>
       <c r="BA5" s="12">
-        <f t="shared" ref="BA5" si="23">AZ5 - SUM(BA6:BA46)</f>
-        <v>54</v>
+        <f t="shared" ref="BA5" si="23">AZ5 - SUM(BA6:BA48)</f>
+        <v>50</v>
       </c>
       <c r="BB5" s="12">
-        <f t="shared" ref="BB5" si="24">BA5 - SUM(BB6:BB46)</f>
-        <v>52</v>
+        <f t="shared" ref="BB5" si="24">BA5 - SUM(BB6:BB48)</f>
+        <v>46</v>
       </c>
       <c r="BC5" s="12">
-        <f t="shared" ref="BC5" si="25">BB5 - SUM(BC6:BC46)</f>
-        <v>48</v>
+        <f t="shared" ref="BC5" si="25">BB5 - SUM(BC6:BC48)</f>
+        <v>46</v>
       </c>
       <c r="BD5" s="12">
-        <f t="shared" ref="BD5" si="26">BC5 - SUM(BD6:BD46)</f>
-        <v>45</v>
+        <f t="shared" ref="BD5" si="26">BC5 - SUM(BD6:BD48)</f>
+        <v>43</v>
       </c>
       <c r="BE5" s="12">
-        <f t="shared" ref="BE5" si="27">BD5 - SUM(BE6:BE46)</f>
-        <v>43</v>
+        <f t="shared" ref="BE5" si="27">BD5 - SUM(BE6:BE48)</f>
+        <v>41</v>
       </c>
       <c r="BF5" s="12">
-        <f t="shared" ref="BF5" si="28">BE5 - SUM(BF6:BF46)</f>
-        <v>41</v>
+        <f t="shared" ref="BF5" si="28">BE5 - SUM(BF6:BF48)</f>
+        <v>39</v>
       </c>
       <c r="BG5" s="12">
-        <f t="shared" ref="BG5" si="29">BF5 - SUM(BG6:BG46)</f>
-        <v>39</v>
+        <f t="shared" ref="BG5" si="29">BF5 - SUM(BG6:BG48)</f>
+        <v>37</v>
       </c>
       <c r="BH5" s="12">
-        <f t="shared" ref="BH5" si="30">BG5 - SUM(BH6:BH46)</f>
-        <v>37</v>
+        <f t="shared" ref="BH5" si="30">BG5 - SUM(BH6:BH48)</f>
+        <v>35</v>
       </c>
       <c r="BI5" s="12">
-        <f t="shared" ref="BI5" si="31">BH5 - SUM(BI6:BI46)</f>
-        <v>35</v>
+        <f t="shared" ref="BI5" si="31">BH5 - SUM(BI6:BI48)</f>
+        <v>33</v>
       </c>
       <c r="BJ5" s="12">
-        <f t="shared" ref="BJ5" si="32">BI5 - SUM(BJ6:BJ46)</f>
-        <v>33</v>
+        <f t="shared" ref="BJ5" si="32">BI5 - SUM(BJ6:BJ48)</f>
+        <v>31</v>
       </c>
       <c r="BK5" s="12">
-        <f t="shared" ref="BK5" si="33">BJ5 - SUM(BK6:BK46)</f>
-        <v>31</v>
+        <f t="shared" ref="BK5" si="33">BJ5 - SUM(BK6:BK48)</f>
+        <v>29</v>
       </c>
       <c r="BL5" s="12">
-        <f t="shared" ref="BL5" si="34">BK5 - SUM(BL6:BL46)</f>
-        <v>29</v>
+        <f t="shared" ref="BL5" si="34">BK5 - SUM(BL6:BL48)</f>
+        <v>27</v>
       </c>
       <c r="BM5" s="12">
-        <f t="shared" ref="BM5" si="35">BL5 - SUM(BM6:BM46)</f>
-        <v>25</v>
+        <f t="shared" ref="BM5" si="35">BL5 - SUM(BM6:BM48)</f>
+        <v>23</v>
       </c>
       <c r="BN5" s="12">
-        <f t="shared" ref="BN5" si="36">BM5 - SUM(BN6:BN46)</f>
-        <v>25</v>
+        <f t="shared" ref="BN5" si="36">BM5 - SUM(BN6:BN48)</f>
+        <v>23</v>
       </c>
       <c r="BO5" s="12">
-        <f t="shared" ref="BO5" si="37">BN5 - SUM(BO6:BO46)</f>
-        <v>21</v>
+        <f t="shared" ref="BO5" si="37">BN5 - SUM(BO6:BO48)</f>
+        <v>19</v>
       </c>
       <c r="BP5" s="12">
-        <f t="shared" ref="BP5" si="38">BO5 - SUM(BP6:BP46)</f>
-        <v>17</v>
+        <f t="shared" ref="BP5" si="38">BO5 - SUM(BP6:BP48)</f>
+        <v>15</v>
       </c>
       <c r="BQ5" s="12">
-        <f t="shared" ref="BQ5" si="39">BP5 - SUM(BQ6:BQ46)</f>
-        <v>16</v>
+        <f t="shared" ref="BQ5" si="39">BP5 - SUM(BQ6:BQ48)</f>
+        <v>14</v>
       </c>
       <c r="BR5" s="12">
-        <f t="shared" ref="BR5" si="40">BQ5 - SUM(BR6:BR46)</f>
-        <v>14</v>
+        <f t="shared" ref="BR5" si="40">BQ5 - SUM(BR6:BR48)</f>
+        <v>11</v>
       </c>
       <c r="BS5" s="12">
-        <f t="shared" ref="BS5" si="41">BR5 - SUM(BS6:BS46)</f>
-        <v>14</v>
+        <f t="shared" ref="BS5" si="41">BR5 - SUM(BS6:BS48)</f>
+        <v>11</v>
       </c>
       <c r="BT5" s="12">
-        <f t="shared" ref="BT5" si="42">BS5 - SUM(BT6:BT46)</f>
-        <v>12</v>
+        <f t="shared" ref="BT5" si="42">BS5 - SUM(BT6:BT48)</f>
+        <v>10</v>
       </c>
       <c r="BU5" s="12">
-        <f t="shared" ref="BU5" si="43">BT5 - SUM(BU6:BU46)</f>
-        <v>10</v>
+        <f t="shared" ref="BU5" si="43">BT5 - SUM(BU6:BU48)</f>
+        <v>8</v>
       </c>
       <c r="BV5" s="12">
-        <f t="shared" ref="BV5" si="44">BU5 - SUM(BV6:BV46)</f>
-        <v>4</v>
+        <f t="shared" ref="BV5" si="44">BU5 - SUM(BV6:BV48)</f>
+        <v>2</v>
       </c>
       <c r="BW5" s="12">
-        <f t="shared" ref="BW5" si="45">BV5 - SUM(BW6:BW46)</f>
-        <v>2</v>
+        <f t="shared" ref="BW5" si="45">BV5 - SUM(BW6:BW48)</f>
+        <v>0</v>
       </c>
       <c r="BX5" s="13" t="s">
         <v>32</v>
@@ -4215,34 +4231,34 @@
       <c r="BW13" s="29"/>
     </row>
     <row r="14" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="19"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="23"/>
       <c r="T14" s="24"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="18"/>
+      <c r="V14" s="25"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
@@ -4256,21 +4272,27 @@
       <c r="AG14" s="29"/>
       <c r="AH14" s="24"/>
       <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
+      <c r="AJ14" s="25">
+        <v>2</v>
+      </c>
       <c r="AK14" s="26"/>
       <c r="AL14" s="26"/>
       <c r="AM14" s="26"/>
       <c r="AN14" s="27"/>
       <c r="AO14" s="28"/>
       <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
+      <c r="AQ14" s="29">
+        <v>2</v>
+      </c>
       <c r="AR14" s="29"/>
       <c r="AS14" s="29"/>
       <c r="AT14" s="29"/>
       <c r="AU14" s="29"/>
       <c r="AV14" s="24"/>
       <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
+      <c r="AX14" s="25">
+        <v>2</v>
+      </c>
       <c r="AY14" s="26"/>
       <c r="AZ14" s="26"/>
       <c r="BA14" s="26"/>
@@ -4290,50 +4312,44 @@
       <c r="BO14" s="26"/>
       <c r="BP14" s="27"/>
       <c r="BQ14" s="28"/>
-      <c r="BR14" s="29"/>
+      <c r="BR14" s="29">
+        <v>2</v>
+      </c>
       <c r="BS14" s="29"/>
       <c r="BT14" s="29"/>
       <c r="BU14" s="29"/>
-      <c r="BV14" s="29">
+      <c r="BV14" s="29"/>
+      <c r="BW14" s="29"/>
+    </row>
+    <row r="15" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="BW14" s="29"/>
-    </row>
-    <row r="15" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="16">
-        <v>4</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25">
-        <v>2</v>
-      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="19"/>
       <c r="M15" s="20"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22">
-        <v>2</v>
-      </c>
-      <c r="P15" s="22"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="18"/>
       <c r="W15" s="26"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="26"/>
@@ -4385,17 +4401,19 @@
       <c r="BS15" s="29"/>
       <c r="BT15" s="29"/>
       <c r="BU15" s="29"/>
-      <c r="BV15" s="29"/>
+      <c r="BV15" s="29">
+        <v>2</v>
+      </c>
       <c r="BW15" s="29"/>
     </row>
     <row r="16" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="B16" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="40" t="s">
         <v>37</v>
       </c>
@@ -4407,19 +4425,19 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="19">
+      <c r="K16" s="25">
         <v>2</v>
       </c>
+      <c r="L16" s="19"/>
       <c r="M16" s="20"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
+      <c r="O16" s="22">
+        <v>2</v>
+      </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="23">
-        <v>2</v>
-      </c>
+      <c r="S16" s="23"/>
       <c r="T16" s="24"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
@@ -4477,16 +4495,16 @@
       <c r="BV16" s="29"/>
       <c r="BW16" s="29"/>
     </row>
-    <row r="17" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="64"/>
       <c r="B17" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="14">
         <v>1</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E17" s="16">
         <v>4</v>
@@ -4495,20 +4513,20 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="25">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="19">
         <v>2</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="19"/>
       <c r="M17" s="20"/>
-      <c r="N17" s="22">
-        <v>2</v>
-      </c>
+      <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="S17" s="23">
+        <v>2</v>
+      </c>
       <c r="T17" s="24"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
@@ -4566,10 +4584,10 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="29"/>
     </row>
-    <row r="18" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="14">
         <v>1</v>
@@ -4584,19 +4602,19 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25">
+      <c r="J18" s="25">
         <v>2</v>
       </c>
+      <c r="K18" s="25"/>
       <c r="L18" s="19"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="22"/>
+      <c r="N18" s="22">
+        <v>2</v>
+      </c>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="22">
-        <v>2</v>
-      </c>
+      <c r="R18" s="22"/>
       <c r="S18" s="23"/>
       <c r="T18" s="24"/>
       <c r="U18" s="25"/>
@@ -4655,18 +4673,16 @@
       <c r="BV18" s="29"/>
       <c r="BW18" s="29"/>
     </row>
-    <row r="19" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>67</v>
+    <row r="19" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="14" t="s">
+        <v>66</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="44">
-        <v>2</v>
+      <c r="C19" s="14">
+        <v>1</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E19" s="16">
         <v>4</v>
@@ -4676,26 +4692,26 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="25">
+        <v>2</v>
+      </c>
       <c r="L19" s="19"/>
       <c r="M19" s="20"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="R19" s="22">
+        <v>2</v>
+      </c>
       <c r="S19" s="23"/>
       <c r="T19" s="24"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="25">
-        <v>2</v>
-      </c>
+      <c r="V19" s="25"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="27">
-        <v>2</v>
-      </c>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="28"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="29"/>
@@ -4746,16 +4762,18 @@
       <c r="BV19" s="29"/>
       <c r="BW19" s="29"/>
     </row>
-    <row r="20" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>67</v>
+      </c>
       <c r="B20" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="44">
         <v>2</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E20" s="16">
         <v>4</v>
@@ -4773,18 +4791,18 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="23">
+      <c r="S20" s="23"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25">
         <v>2</v>
       </c>
-      <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
-      <c r="Y20" s="26">
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27">
         <v>2</v>
       </c>
-      <c r="Z20" s="27"/>
       <c r="AA20" s="28"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="29"/>
@@ -4835,18 +4853,16 @@
       <c r="BV20" s="29"/>
       <c r="BW20" s="29"/>
     </row>
-    <row r="21" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>84</v>
+    <row r="21" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="44" t="s">
+        <v>71</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="14">
-        <v>11</v>
+      <c r="C21" s="44">
+        <v>2</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E21" s="16">
         <v>4</v>
@@ -4864,13 +4880,17 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
+      <c r="S21" s="23">
+        <v>2</v>
+      </c>
       <c r="T21" s="24"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
+      <c r="Y21" s="26">
+        <v>2</v>
+      </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="28"/>
       <c r="AB21" s="29"/>
@@ -4907,16 +4927,12 @@
       <c r="BG21" s="29"/>
       <c r="BH21" s="29"/>
       <c r="BI21" s="29"/>
-      <c r="BJ21" s="24">
-        <v>2</v>
-      </c>
+      <c r="BJ21" s="24"/>
       <c r="BK21" s="25"/>
       <c r="BL21" s="25"/>
       <c r="BM21" s="26"/>
       <c r="BN21" s="26"/>
-      <c r="BO21" s="26">
-        <v>2</v>
-      </c>
+      <c r="BO21" s="26"/>
       <c r="BP21" s="27"/>
       <c r="BQ21" s="28"/>
       <c r="BR21" s="29"/>
@@ -4926,13 +4942,15 @@
       <c r="BV21" s="29"/>
       <c r="BW21" s="29"/>
     </row>
-    <row r="22" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+    <row r="22" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>84</v>
+      </c>
       <c r="B22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>37</v>
@@ -4996,17 +5014,17 @@
       <c r="BG22" s="29"/>
       <c r="BH22" s="29"/>
       <c r="BI22" s="29"/>
-      <c r="BJ22" s="24"/>
+      <c r="BJ22" s="24">
+        <v>2</v>
+      </c>
       <c r="BK22" s="25"/>
       <c r="BL22" s="25"/>
-      <c r="BM22" s="26">
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22" s="26">
         <v>2</v>
       </c>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="27">
-        <v>2</v>
-      </c>
+      <c r="BP22" s="27"/>
       <c r="BQ22" s="28"/>
       <c r="BR22" s="29"/>
       <c r="BS22" s="29"/>
@@ -5018,10 +5036,10 @@
     <row r="23" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>37</v>
@@ -5087,36 +5105,36 @@
       <c r="BI23" s="29"/>
       <c r="BJ23" s="24"/>
       <c r="BK23" s="25"/>
-      <c r="BL23" s="25">
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="26">
         <v>2</v>
       </c>
-      <c r="BM23" s="26"/>
       <c r="BN23" s="26"/>
       <c r="BO23" s="26"/>
-      <c r="BP23" s="27"/>
-      <c r="BQ23" s="28"/>
-      <c r="BR23" s="29">
+      <c r="BP23" s="27">
         <v>2</v>
       </c>
+      <c r="BQ23" s="28"/>
+      <c r="BR23" s="29"/>
       <c r="BS23" s="29"/>
       <c r="BT23" s="29"/>
       <c r="BU23" s="29"/>
       <c r="BV23" s="29"/>
       <c r="BW23" s="29"/>
     </row>
-    <row r="24" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
       <c r="B24" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
@@ -5176,33 +5194,33 @@
       <c r="BI24" s="29"/>
       <c r="BJ24" s="24"/>
       <c r="BK24" s="25"/>
-      <c r="BL24" s="25"/>
+      <c r="BL24" s="25">
+        <v>2</v>
+      </c>
       <c r="BM24" s="26"/>
       <c r="BN24" s="26"/>
       <c r="BO24" s="26"/>
       <c r="BP24" s="27"/>
       <c r="BQ24" s="28"/>
-      <c r="BR24" s="29"/>
+      <c r="BR24" s="29">
+        <v>1</v>
+      </c>
       <c r="BS24" s="29"/>
       <c r="BT24" s="29"/>
-      <c r="BU24" s="29">
-        <v>2</v>
+      <c r="BU24" s="29"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="29"/>
+    </row>
+    <row r="25" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="14" t="s">
+        <v>83</v>
       </c>
-      <c r="BV24" s="29"/>
-      <c r="BW24" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="39">
-        <v>11</v>
+      <c r="C25" s="14">
+        <v>14</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E25" s="16">
         <v>4</v>
@@ -5257,18 +5275,14 @@
       <c r="BA25" s="26"/>
       <c r="BB25" s="27"/>
       <c r="BC25" s="28"/>
-      <c r="BD25" s="29">
-        <v>2</v>
-      </c>
+      <c r="BD25" s="29"/>
       <c r="BE25" s="29"/>
       <c r="BF25" s="29"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="29"/>
       <c r="BI25" s="29"/>
       <c r="BJ25" s="24"/>
-      <c r="BK25" s="25">
-        <v>2</v>
-      </c>
+      <c r="BK25" s="25"/>
       <c r="BL25" s="25"/>
       <c r="BM25" s="26"/>
       <c r="BN25" s="26"/>
@@ -5278,17 +5292,21 @@
       <c r="BR25" s="29"/>
       <c r="BS25" s="29"/>
       <c r="BT25" s="29"/>
-      <c r="BU25" s="29"/>
+      <c r="BU25" s="29">
+        <v>2</v>
+      </c>
       <c r="BV25" s="29"/>
-      <c r="BW25" s="29"/>
-    </row>
-    <row r="26" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BW25" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>57</v>
@@ -5346,20 +5364,20 @@
       <c r="BA26" s="26"/>
       <c r="BB26" s="27"/>
       <c r="BC26" s="28"/>
-      <c r="BD26" s="29"/>
-      <c r="BE26" s="29"/>
-      <c r="BF26" s="29">
+      <c r="BD26" s="29">
         <v>2</v>
       </c>
+      <c r="BE26" s="29"/>
+      <c r="BF26" s="29"/>
       <c r="BG26" s="29"/>
       <c r="BH26" s="29"/>
       <c r="BI26" s="29"/>
       <c r="BJ26" s="24"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="26">
+      <c r="BK26" s="25">
         <v>2</v>
       </c>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="26"/>
       <c r="BN26" s="26"/>
       <c r="BO26" s="26"/>
       <c r="BP26" s="27"/>
@@ -5371,13 +5389,13 @@
       <c r="BV26" s="29"/>
       <c r="BW26" s="29"/>
     </row>
-    <row r="27" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>57</v>
@@ -5437,42 +5455,42 @@
       <c r="BC27" s="28"/>
       <c r="BD27" s="29"/>
       <c r="BE27" s="29"/>
-      <c r="BF27" s="29"/>
+      <c r="BF27" s="29">
+        <v>2</v>
+      </c>
       <c r="BG27" s="29"/>
       <c r="BH27" s="29"/>
       <c r="BI27" s="29"/>
       <c r="BJ27" s="24"/>
       <c r="BK27" s="25"/>
       <c r="BL27" s="25"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26">
+      <c r="BM27" s="26">
         <v>2</v>
       </c>
+      <c r="BN27" s="26"/>
+      <c r="BO27" s="26"/>
       <c r="BP27" s="27"/>
       <c r="BQ27" s="28"/>
       <c r="BR27" s="29"/>
       <c r="BS27" s="29"/>
-      <c r="BT27" s="29">
-        <v>2</v>
-      </c>
+      <c r="BT27" s="29"/>
       <c r="BU27" s="29"/>
       <c r="BV27" s="29"/>
       <c r="BW27" s="29"/>
     </row>
     <row r="28" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
@@ -5535,32 +5553,30 @@
       <c r="BL28" s="25"/>
       <c r="BM28" s="26"/>
       <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="27">
+      <c r="BO28" s="26">
         <v>2</v>
       </c>
+      <c r="BP28" s="27"/>
       <c r="BQ28" s="28"/>
       <c r="BR28" s="29"/>
       <c r="BS28" s="29"/>
-      <c r="BT28" s="29"/>
+      <c r="BT28" s="29">
+        <v>1</v>
+      </c>
       <c r="BU28" s="29"/>
-      <c r="BV28" s="29">
-        <v>2</v>
-      </c>
+      <c r="BV28" s="29"/>
       <c r="BW28" s="29"/>
     </row>
-    <row r="29" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
-        <v>101</v>
-      </c>
+    <row r="29" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
       <c r="B29" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E29" s="16">
         <v>4</v>
@@ -5601,12 +5617,8 @@
       <c r="AM29" s="26"/>
       <c r="AN29" s="27"/>
       <c r="AO29" s="28"/>
-      <c r="AP29" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ29" s="29">
-        <v>2</v>
-      </c>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
       <c r="AR29" s="29"/>
       <c r="AS29" s="29"/>
       <c r="AT29" s="29"/>
@@ -5631,22 +5643,28 @@
       <c r="BM29" s="26"/>
       <c r="BN29" s="26"/>
       <c r="BO29" s="26"/>
-      <c r="BP29" s="27"/>
+      <c r="BP29" s="27">
+        <v>2</v>
+      </c>
       <c r="BQ29" s="28"/>
       <c r="BR29" s="29"/>
       <c r="BS29" s="29"/>
       <c r="BT29" s="29"/>
       <c r="BU29" s="29"/>
-      <c r="BV29" s="29"/>
+      <c r="BV29" s="29">
+        <v>2</v>
+      </c>
       <c r="BW29" s="29"/>
     </row>
-    <row r="30" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+    <row r="30" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="B30" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>37</v>
@@ -5690,18 +5708,18 @@
       <c r="AM30" s="26"/>
       <c r="AN30" s="27"/>
       <c r="AO30" s="28"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="29"/>
+      <c r="AP30" s="29">
+        <v>2</v>
+      </c>
+      <c r="AQ30" s="29">
+        <v>2</v>
+      </c>
       <c r="AR30" s="29"/>
       <c r="AS30" s="29"/>
-      <c r="AT30" s="29">
-        <v>2</v>
-      </c>
+      <c r="AT30" s="29"/>
       <c r="AU30" s="29"/>
       <c r="AV30" s="24"/>
-      <c r="AW30" s="25">
-        <v>2</v>
-      </c>
+      <c r="AW30" s="25"/>
       <c r="AX30" s="25"/>
       <c r="AY30" s="26"/>
       <c r="AZ30" s="26"/>
@@ -5732,10 +5750,10 @@
     <row r="31" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="B31" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>37</v>
@@ -5783,13 +5801,15 @@
       <c r="AQ31" s="29"/>
       <c r="AR31" s="29"/>
       <c r="AS31" s="29"/>
-      <c r="AT31" s="29"/>
+      <c r="AT31" s="29">
+        <v>2</v>
+      </c>
       <c r="AU31" s="29"/>
       <c r="AV31" s="24"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="25">
+      <c r="AW31" s="25">
         <v>2</v>
       </c>
+      <c r="AX31" s="25"/>
       <c r="AY31" s="26"/>
       <c r="AZ31" s="26"/>
       <c r="BA31" s="26"/>
@@ -5816,19 +5836,19 @@
       <c r="BV31" s="29"/>
       <c r="BW31" s="29"/>
     </row>
-    <row r="32" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="B32" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E32" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
@@ -5878,14 +5898,12 @@
         <v>2</v>
       </c>
       <c r="AY32" s="26"/>
-      <c r="AZ32" s="26">
-        <v>1</v>
-      </c>
+      <c r="AZ32" s="26"/>
       <c r="BA32" s="26"/>
-      <c r="BB32" s="27"/>
-      <c r="BC32" s="28">
+      <c r="BB32" s="27">
         <v>2</v>
       </c>
+      <c r="BC32" s="28"/>
       <c r="BD32" s="29"/>
       <c r="BE32" s="29"/>
       <c r="BF32" s="29"/>
@@ -5907,19 +5925,19 @@
       <c r="BV32" s="29"/>
       <c r="BW32" s="29"/>
     </row>
-    <row r="33" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="B33" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E33" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
@@ -5965,21 +5983,19 @@
       <c r="AU33" s="29"/>
       <c r="AV33" s="24"/>
       <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
+      <c r="AX33" s="25">
+        <v>2</v>
+      </c>
       <c r="AY33" s="26"/>
       <c r="AZ33" s="26"/>
       <c r="BA33" s="26"/>
       <c r="BB33" s="27"/>
       <c r="BC33" s="28"/>
       <c r="BD33" s="29"/>
-      <c r="BE33" s="29">
-        <v>2</v>
-      </c>
+      <c r="BE33" s="29"/>
       <c r="BF33" s="29"/>
       <c r="BG33" s="29"/>
-      <c r="BH33" s="29">
-        <v>2</v>
-      </c>
+      <c r="BH33" s="29"/>
       <c r="BI33" s="29"/>
       <c r="BJ33" s="24"/>
       <c r="BK33" s="25"/>
@@ -5999,13 +6015,13 @@
     <row r="34" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="B34" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16">
         <v>4</v>
@@ -6061,15 +6077,15 @@
       <c r="BB34" s="27"/>
       <c r="BC34" s="28"/>
       <c r="BD34" s="29"/>
-      <c r="BE34" s="29"/>
-      <c r="BF34" s="29"/>
-      <c r="BG34" s="29">
+      <c r="BE34" s="29">
         <v>2</v>
       </c>
-      <c r="BH34" s="29"/>
-      <c r="BI34" s="29">
+      <c r="BF34" s="29"/>
+      <c r="BG34" s="29"/>
+      <c r="BH34" s="29">
         <v>2</v>
       </c>
+      <c r="BI34" s="29"/>
       <c r="BJ34" s="24"/>
       <c r="BK34" s="25"/>
       <c r="BL34" s="25"/>
@@ -6085,16 +6101,16 @@
       <c r="BV34" s="29"/>
       <c r="BW34" s="29"/>
     </row>
-    <row r="35" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="B35" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="39">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E35" s="16">
         <v>4</v>
@@ -6129,14 +6145,10 @@
       <c r="AG35" s="29"/>
       <c r="AH35" s="24"/>
       <c r="AI35" s="25"/>
-      <c r="AJ35" s="25">
-        <v>2</v>
-      </c>
+      <c r="AJ35" s="25"/>
       <c r="AK35" s="26"/>
       <c r="AL35" s="26"/>
-      <c r="AM35" s="26">
-        <v>2</v>
-      </c>
+      <c r="AM35" s="26"/>
       <c r="AN35" s="27"/>
       <c r="AO35" s="28"/>
       <c r="AP35" s="29"/>
@@ -6156,9 +6168,13 @@
       <c r="BD35" s="29"/>
       <c r="BE35" s="29"/>
       <c r="BF35" s="29"/>
-      <c r="BG35" s="29"/>
+      <c r="BG35" s="29">
+        <v>2</v>
+      </c>
       <c r="BH35" s="29"/>
-      <c r="BI35" s="29"/>
+      <c r="BI35" s="29">
+        <v>2</v>
+      </c>
       <c r="BJ35" s="24"/>
       <c r="BK35" s="25"/>
       <c r="BL35" s="25"/>
@@ -6174,13 +6190,13 @@
       <c r="BV35" s="29"/>
       <c r="BW35" s="29"/>
     </row>
-    <row r="36" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>57</v>
@@ -6218,17 +6234,17 @@
       <c r="AG36" s="29"/>
       <c r="AH36" s="24"/>
       <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26">
+      <c r="AJ36" s="25">
         <v>2</v>
       </c>
-      <c r="AM36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26">
+        <v>2</v>
+      </c>
       <c r="AN36" s="27"/>
       <c r="AO36" s="28"/>
-      <c r="AP36" s="29">
-        <v>2</v>
-      </c>
+      <c r="AP36" s="29"/>
       <c r="AQ36" s="29"/>
       <c r="AR36" s="29"/>
       <c r="AS36" s="29"/>
@@ -6266,10 +6282,10 @@
     <row r="37" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="B37" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>57</v>
@@ -6309,14 +6325,16 @@
       <c r="AI37" s="25"/>
       <c r="AJ37" s="25"/>
       <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
+      <c r="AL37" s="26">
+        <v>2</v>
+      </c>
       <c r="AM37" s="26"/>
       <c r="AN37" s="27"/>
       <c r="AO37" s="28"/>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29">
+      <c r="AP37" s="29">
         <v>2</v>
       </c>
+      <c r="AQ37" s="29"/>
       <c r="AR37" s="29"/>
       <c r="AS37" s="29"/>
       <c r="AT37" s="29"/>
@@ -6328,9 +6346,7 @@
       <c r="AZ37" s="26"/>
       <c r="BA37" s="26"/>
       <c r="BB37" s="27"/>
-      <c r="BC37" s="28">
-        <v>2</v>
-      </c>
+      <c r="BC37" s="28"/>
       <c r="BD37" s="29"/>
       <c r="BE37" s="29"/>
       <c r="BF37" s="29"/>
@@ -6352,19 +6368,19 @@
       <c r="BV37" s="29"/>
       <c r="BW37" s="29"/>
     </row>
-    <row r="38" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="B38" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
@@ -6403,22 +6419,18 @@
       <c r="AN38" s="27"/>
       <c r="AO38" s="28"/>
       <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29">
+      <c r="AQ38" s="29">
         <v>2</v>
       </c>
+      <c r="AR38" s="29"/>
       <c r="AS38" s="29"/>
-      <c r="AT38" s="29">
-        <v>1</v>
-      </c>
+      <c r="AT38" s="29"/>
       <c r="AU38" s="29"/>
       <c r="AV38" s="24"/>
       <c r="AW38" s="25"/>
       <c r="AX38" s="25"/>
       <c r="AY38" s="26"/>
-      <c r="AZ38" s="26">
-        <v>2</v>
-      </c>
+      <c r="AZ38" s="26"/>
       <c r="BA38" s="26"/>
       <c r="BB38" s="27"/>
       <c r="BC38" s="28"/>
@@ -6443,13 +6455,13 @@
       <c r="BV38" s="29"/>
       <c r="BW38" s="29"/>
     </row>
-    <row r="39" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="B39" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>57</v>
@@ -6495,11 +6507,11 @@
       <c r="AO39" s="28"/>
       <c r="AP39" s="29"/>
       <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29">
+      <c r="AR39" s="29">
         <v>2</v>
       </c>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="29"/>
       <c r="AU39" s="29"/>
       <c r="AV39" s="24"/>
       <c r="AW39" s="25"/>
@@ -6533,12 +6545,12 @@
       <c r="BW39" s="29"/>
     </row>
     <row r="40" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>57</v>
@@ -6586,19 +6598,19 @@
       <c r="AQ40" s="29"/>
       <c r="AR40" s="29"/>
       <c r="AS40" s="29"/>
-      <c r="AT40" s="29"/>
+      <c r="AT40" s="29">
+        <v>2</v>
+      </c>
       <c r="AU40" s="29"/>
       <c r="AV40" s="24"/>
       <c r="AW40" s="25"/>
       <c r="AX40" s="25"/>
       <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26">
+      <c r="AZ40" s="26">
         <v>2</v>
       </c>
-      <c r="BB40" s="27">
-        <v>2</v>
-      </c>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="27"/>
       <c r="BC40" s="28"/>
       <c r="BD40" s="29"/>
       <c r="BE40" s="29"/>
@@ -6621,21 +6633,19 @@
       <c r="BV40" s="29"/>
       <c r="BW40" s="29"/>
     </row>
-    <row r="41" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66" t="s">
-        <v>73</v>
+    <row r="41" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="39" t="s">
+        <v>100</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="14">
-        <v>3</v>
+      <c r="C41" s="39">
+        <v>15</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E41" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
@@ -6654,9 +6664,7 @@
       <c r="T41" s="24"/>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
-      <c r="W41" s="26">
-        <v>2</v>
-      </c>
+      <c r="W41" s="26"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="26"/>
       <c r="Z41" s="27"/>
@@ -6664,16 +6672,12 @@
       <c r="AB41" s="29"/>
       <c r="AC41" s="29"/>
       <c r="AD41" s="29"/>
-      <c r="AE41" s="29">
-        <v>2</v>
-      </c>
+      <c r="AE41" s="29"/>
       <c r="AF41" s="29"/>
       <c r="AG41" s="29"/>
       <c r="AH41" s="24"/>
       <c r="AI41" s="25"/>
-      <c r="AJ41" s="25">
-        <v>1</v>
-      </c>
+      <c r="AJ41" s="25"/>
       <c r="AK41" s="26"/>
       <c r="AL41" s="26"/>
       <c r="AM41" s="26"/>
@@ -6690,8 +6694,12 @@
       <c r="AX41" s="25"/>
       <c r="AY41" s="26"/>
       <c r="AZ41" s="26"/>
-      <c r="BA41" s="26"/>
-      <c r="BB41" s="27"/>
+      <c r="BA41" s="26">
+        <v>2</v>
+      </c>
+      <c r="BB41" s="27">
+        <v>2</v>
+      </c>
       <c r="BC41" s="28"/>
       <c r="BD41" s="29"/>
       <c r="BE41" s="29"/>
@@ -6714,19 +6722,21 @@
       <c r="BV41" s="29"/>
       <c r="BW41" s="29"/>
     </row>
-    <row r="42" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+    <row r="42" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="B42" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
@@ -6745,25 +6755,23 @@
       <c r="T42" s="24"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26">
+      <c r="W42" s="26">
         <v>2</v>
       </c>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
       <c r="Z42" s="27"/>
       <c r="AA42" s="28"/>
       <c r="AB42" s="29"/>
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29">
+      <c r="AE42" s="29">
         <v>2</v>
       </c>
+      <c r="AF42" s="29"/>
       <c r="AG42" s="29"/>
       <c r="AH42" s="24"/>
-      <c r="AI42" s="25">
-        <v>1</v>
-      </c>
+      <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
       <c r="AL42" s="26"/>
@@ -6808,10 +6816,10 @@
     <row r="43" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
       <c r="B43" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>37</v>
@@ -6838,25 +6846,25 @@
       <c r="V43" s="25"/>
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
+      <c r="Y43" s="26">
+        <v>2</v>
+      </c>
       <c r="Z43" s="27"/>
       <c r="AA43" s="28"/>
       <c r="AB43" s="29"/>
       <c r="AC43" s="29"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
+      <c r="AF43" s="29">
+        <v>2</v>
+      </c>
       <c r="AG43" s="29"/>
       <c r="AH43" s="24"/>
       <c r="AI43" s="25"/>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="26">
-        <v>2</v>
-      </c>
+      <c r="AK43" s="26"/>
       <c r="AL43" s="26"/>
-      <c r="AM43" s="26">
-        <v>2</v>
-      </c>
+      <c r="AM43" s="26"/>
       <c r="AN43" s="27"/>
       <c r="AO43" s="28"/>
       <c r="AP43" s="29"/>
@@ -6894,60 +6902,58 @@
       <c r="BV43" s="29"/>
       <c r="BW43" s="29"/>
     </row>
-    <row r="44" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
       <c r="B44" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="19"/>
       <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
       <c r="S44" s="23"/>
       <c r="T44" s="24"/>
-      <c r="U44" s="25">
-        <v>2</v>
-      </c>
-      <c r="V44" s="18"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
       <c r="W44" s="26"/>
       <c r="X44" s="26"/>
       <c r="Y44" s="26"/>
       <c r="Z44" s="27"/>
       <c r="AA44" s="28"/>
-      <c r="AB44" s="29">
-        <v>2</v>
-      </c>
+      <c r="AB44" s="29"/>
       <c r="AC44" s="29"/>
-      <c r="AD44" s="29">
-        <v>1</v>
-      </c>
+      <c r="AD44" s="29"/>
       <c r="AE44" s="29"/>
       <c r="AF44" s="29"/>
       <c r="AG44" s="29"/>
       <c r="AH44" s="24"/>
       <c r="AI44" s="25"/>
       <c r="AJ44" s="25"/>
-      <c r="AK44" s="26"/>
+      <c r="AK44" s="26">
+        <v>2</v>
+      </c>
       <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
+      <c r="AM44" s="26">
+        <v>2</v>
+      </c>
       <c r="AN44" s="27"/>
       <c r="AO44" s="28"/>
       <c r="AP44" s="29"/>
@@ -6985,19 +6991,19 @@
       <c r="BV44" s="29"/>
       <c r="BW44" s="29"/>
     </row>
-    <row r="45" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="B45" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
@@ -7014,24 +7020,22 @@
       <c r="R45" s="22"/>
       <c r="S45" s="23"/>
       <c r="T45" s="24"/>
-      <c r="U45" s="25"/>
+      <c r="U45" s="25">
+        <v>2</v>
+      </c>
       <c r="V45" s="18"/>
       <c r="W45" s="26"/>
-      <c r="X45" s="26">
-        <v>2</v>
-      </c>
+      <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="27"/>
       <c r="AA45" s="28"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29">
+      <c r="AB45" s="29">
         <v>2</v>
       </c>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
       <c r="AE45" s="29"/>
-      <c r="AF45" s="29">
-        <v>1</v>
-      </c>
+      <c r="AF45" s="29"/>
       <c r="AG45" s="29"/>
       <c r="AH45" s="24"/>
       <c r="AI45" s="25"/>
@@ -7077,12 +7081,12 @@
       <c r="BW45" s="29"/>
     </row>
     <row r="46" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>57</v>
@@ -7108,23 +7112,23 @@
       <c r="U46" s="25"/>
       <c r="V46" s="18"/>
       <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
+      <c r="X46" s="26">
+        <v>2</v>
+      </c>
       <c r="Y46" s="26"/>
       <c r="Z46" s="27"/>
       <c r="AA46" s="28"/>
       <c r="AB46" s="29"/>
       <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
+      <c r="AD46" s="29">
+        <v>2</v>
+      </c>
       <c r="AE46" s="29"/>
       <c r="AF46" s="29"/>
-      <c r="AG46" s="29">
-        <v>2</v>
-      </c>
+      <c r="AG46" s="29"/>
       <c r="AH46" s="24"/>
       <c r="AI46" s="25"/>
-      <c r="AJ46" s="25">
-        <v>2</v>
-      </c>
+      <c r="AJ46" s="25"/>
       <c r="AK46" s="26"/>
       <c r="AL46" s="26"/>
       <c r="AM46" s="26"/>
@@ -7166,70 +7170,186 @@
       <c r="BW46" s="29"/>
     </row>
     <row r="47" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
-      <c r="BJ47" s="33"/>
-      <c r="BK47" s="33"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="14">
+        <v>5</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="16">
+        <v>4</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29">
+        <v>2</v>
+      </c>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25">
+        <v>2</v>
+      </c>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="26"/>
+      <c r="AN47" s="27"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29"/>
+      <c r="AU47" s="29"/>
+      <c r="AV47" s="24"/>
+      <c r="AW47" s="25"/>
+      <c r="AX47" s="25"/>
+      <c r="AY47" s="26"/>
+      <c r="AZ47" s="26"/>
+      <c r="BA47" s="26"/>
+      <c r="BB47" s="27"/>
+      <c r="BC47" s="28"/>
+      <c r="BD47" s="29"/>
+      <c r="BE47" s="29"/>
+      <c r="BF47" s="29"/>
+      <c r="BG47" s="29"/>
+      <c r="BH47" s="29"/>
+      <c r="BI47" s="29"/>
+      <c r="BJ47" s="24"/>
+      <c r="BK47" s="25"/>
+      <c r="BL47" s="25"/>
+      <c r="BM47" s="26"/>
+      <c r="BN47" s="26"/>
+      <c r="BO47" s="26"/>
+      <c r="BP47" s="27"/>
+      <c r="BQ47" s="28"/>
+      <c r="BR47" s="29"/>
+      <c r="BS47" s="29"/>
+      <c r="BT47" s="29"/>
+      <c r="BU47" s="29"/>
+      <c r="BV47" s="29"/>
+      <c r="BW47" s="29"/>
     </row>
     <row r="48" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>33</v>
+      <c r="A48" s="67" t="s">
+        <v>107</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="AH48" s="33"/>
-      <c r="AI48" s="33"/>
-      <c r="AV48" s="33"/>
-      <c r="AW48" s="33"/>
-      <c r="BJ48" s="33"/>
-      <c r="BK48" s="33"/>
+      <c r="B48" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="14">
+        <v>5</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="16">
+        <v>4</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29">
+        <v>2</v>
+      </c>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25">
+        <v>2</v>
+      </c>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="26"/>
+      <c r="AN48" s="27"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="29"/>
+      <c r="AQ48" s="29"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="29"/>
+      <c r="AT48" s="29"/>
+      <c r="AU48" s="29"/>
+      <c r="AV48" s="24"/>
+      <c r="AW48" s="25"/>
+      <c r="AX48" s="25"/>
+      <c r="AY48" s="26"/>
+      <c r="AZ48" s="26"/>
+      <c r="BA48" s="26"/>
+      <c r="BB48" s="27"/>
+      <c r="BC48" s="28"/>
+      <c r="BD48" s="29"/>
+      <c r="BE48" s="29"/>
+      <c r="BF48" s="29"/>
+      <c r="BG48" s="29"/>
+      <c r="BH48" s="29"/>
+      <c r="BI48" s="29"/>
+      <c r="BJ48" s="24"/>
+      <c r="BK48" s="25"/>
+      <c r="BL48" s="25"/>
+      <c r="BM48" s="26"/>
+      <c r="BN48" s="26"/>
+      <c r="BO48" s="26"/>
+      <c r="BP48" s="27"/>
+      <c r="BQ48" s="28"/>
+      <c r="BR48" s="29"/>
+      <c r="BS48" s="29"/>
+      <c r="BT48" s="29"/>
+      <c r="BU48" s="29"/>
+      <c r="BV48" s="29"/>
+      <c r="BW48" s="29"/>
     </row>
     <row r="49" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="33"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -7256,12 +7376,10 @@
       <c r="BK49" s="33"/>
     </row>
     <row r="50" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>40</v>
+      <c r="A50" s="31" t="s">
+        <v>33</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>42</v>
-      </c>
+      <c r="B50" s="30"/>
       <c r="C50" s="33"/>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
@@ -7290,7 +7408,7 @@
     </row>
     <row r="51" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>42</v>
@@ -7323,7 +7441,7 @@
     </row>
     <row r="52" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>42</v>
@@ -7355,8 +7473,12 @@
       <c r="BK52" s="33"/>
     </row>
     <row r="53" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="C53" s="33"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
@@ -7384,13 +7506,13 @@
       <c r="BK53" s="33"/>
     </row>
     <row r="54" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>45</v>
+      <c r="A54" s="32" t="s">
+        <v>35</v>
       </c>
-      <c r="B54" s="38">
-        <v>16</v>
+      <c r="B54" s="33" t="s">
+        <v>42</v>
       </c>
-      <c r="C54" s="38"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
@@ -7417,13 +7539,9 @@
       <c r="BK54" s="33"/>
     </row>
     <row r="55" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="34">
-        <v>160</v>
-      </c>
-      <c r="C55" s="34"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
@@ -7450,8 +7568,13 @@
       <c r="BK55" s="33"/>
     </row>
     <row r="56" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="38">
+        <v>16</v>
+      </c>
+      <c r="C56" s="38"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
@@ -7478,6 +7601,13 @@
       <c r="BK56" s="33"/>
     </row>
     <row r="57" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="34">
+        <v>160</v>
+      </c>
+      <c r="C57" s="34"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
@@ -7504,6 +7634,8 @@
       <c r="BK57" s="33"/>
     </row>
     <row r="58" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
@@ -32879,15 +33011,67 @@
       <c r="BJ1033" s="33"/>
       <c r="BK1033" s="33"/>
     </row>
+    <row r="1034" spans="4:63" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1034" s="30"/>
+      <c r="E1034" s="30"/>
+      <c r="F1034" s="30"/>
+      <c r="G1034" s="30"/>
+      <c r="H1034" s="30"/>
+      <c r="I1034" s="30"/>
+      <c r="J1034" s="30"/>
+      <c r="K1034" s="30"/>
+      <c r="L1034" s="30"/>
+      <c r="M1034" s="30"/>
+      <c r="N1034" s="30"/>
+      <c r="O1034" s="30"/>
+      <c r="P1034" s="30"/>
+      <c r="Q1034" s="30"/>
+      <c r="R1034" s="30"/>
+      <c r="S1034" s="30"/>
+      <c r="T1034" s="30"/>
+      <c r="U1034" s="30"/>
+      <c r="AH1034" s="33"/>
+      <c r="AI1034" s="33"/>
+      <c r="AV1034" s="33"/>
+      <c r="AW1034" s="33"/>
+      <c r="BJ1034" s="33"/>
+      <c r="BK1034" s="33"/>
+    </row>
+    <row r="1035" spans="4:63" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D1035" s="30"/>
+      <c r="E1035" s="30"/>
+      <c r="F1035" s="30"/>
+      <c r="G1035" s="30"/>
+      <c r="H1035" s="30"/>
+      <c r="I1035" s="30"/>
+      <c r="J1035" s="30"/>
+      <c r="K1035" s="30"/>
+      <c r="L1035" s="30"/>
+      <c r="M1035" s="30"/>
+      <c r="N1035" s="30"/>
+      <c r="O1035" s="30"/>
+      <c r="P1035" s="30"/>
+      <c r="Q1035" s="30"/>
+      <c r="R1035" s="30"/>
+      <c r="S1035" s="30"/>
+      <c r="T1035" s="30"/>
+      <c r="U1035" s="30"/>
+      <c r="AH1035" s="33"/>
+      <c r="AI1035" s="33"/>
+      <c r="AV1035" s="33"/>
+      <c r="AW1035" s="33"/>
+      <c r="BJ1035" s="33"/>
+      <c r="BK1035" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A42:A47"/>
     <mergeCell ref="BQ1:BW1"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A15"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AV1:BB1"/>

--- a/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
+++ b/SCRUM_Sheet/Team3_SCRUM_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SJSU\NEW_SEM\202\Project\fa20-cmpe-202-sec-02-team-project-team_3\SCRUM_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EBF6DD-25BB-4202-AD0D-321A4E707B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6193D541-0B44-4E4A-8793-0E738B9D9143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -709,6 +709,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -818,6 +833,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,25 +884,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1720,127 +1735,127 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>72</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>63</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>52</c:v>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>46</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2</c:v>
@@ -2406,109 +2421,109 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="52" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="53" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="52" t="s">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="52" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="53" t="s">
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="53" t="s">
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="54"/>
-      <c r="BQ1" s="46" t="s">
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="47"/>
-      <c r="BV1" s="47"/>
-      <c r="BW1" s="48"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="54"/>
     </row>
     <row r="2" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="65" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2723,11 +2738,11 @@
       </c>
     </row>
     <row r="3" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="7">
         <v>44101</v>
       </c>
@@ -2941,10 +2956,10 @@
       <c r="BX3" s="9"/>
     </row>
     <row r="4" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
         <v>160</v>
@@ -3230,10 +3245,10 @@
       </c>
     </row>
     <row r="5" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10">
         <f>SUM(E6:E48)</f>
         <v>160</v>
@@ -3348,167 +3363,167 @@
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" ref="AH5" si="4">AG5 - SUM(AH6:AH48)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AI5" s="12">
         <f t="shared" ref="AI5" si="5">AH5 - SUM(AI6:AI48)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ref="AJ5" si="6">AI5 - SUM(AJ6:AJ48)</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AK5" s="12">
         <f t="shared" ref="AK5" si="7">AJ5 - SUM(AK6:AK48)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AL5" s="12">
         <f t="shared" ref="AL5" si="8">AK5 - SUM(AL6:AL48)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AM5" s="12">
         <f t="shared" ref="AM5" si="9">AL5 - SUM(AM6:AM48)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AN5" s="12">
         <f t="shared" ref="AN5" si="10">AM5 - SUM(AN6:AN48)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AO5" s="12">
         <f t="shared" ref="AO5" si="11">AN5 - SUM(AO6:AO48)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AP5" s="12">
         <f t="shared" ref="AP5" si="12">AO5 - SUM(AP6:AP48)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ref="AQ5" si="13">AP5 - SUM(AQ6:AQ48)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR5" s="12">
         <f t="shared" ref="AR5" si="14">AQ5 - SUM(AR6:AR48)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AS5" s="12">
         <f t="shared" ref="AS5" si="15">AR5 - SUM(AS6:AS48)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AT5" s="12">
         <f t="shared" ref="AT5" si="16">AS5 - SUM(AT6:AT48)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AU5" s="12">
         <f t="shared" ref="AU5" si="17">AT5 - SUM(AU6:AU48)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AV5" s="12">
         <f t="shared" ref="AV5" si="18">AU5 - SUM(AV6:AV48)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AW5" s="12">
         <f t="shared" ref="AW5" si="19">AV5 - SUM(AW6:AW48)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ref="AX5" si="20">AW5 - SUM(AX6:AX48)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AY5" s="12">
         <f t="shared" ref="AY5" si="21">AX5 - SUM(AY6:AY48)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AZ5" s="12">
         <f t="shared" ref="AZ5" si="22">AY5 - SUM(AZ6:AZ48)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BA5" s="12">
         <f t="shared" ref="BA5" si="23">AZ5 - SUM(BA6:BA48)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="BB5" s="12">
         <f t="shared" ref="BB5" si="24">BA5 - SUM(BB6:BB48)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BC5" s="12">
         <f t="shared" ref="BC5" si="25">BB5 - SUM(BC6:BC48)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BD5" s="12">
         <f t="shared" ref="BD5" si="26">BC5 - SUM(BD6:BD48)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ref="BE5" si="27">BD5 - SUM(BE6:BE48)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BF5" s="12">
         <f t="shared" ref="BF5" si="28">BE5 - SUM(BF6:BF48)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BG5" s="12">
         <f t="shared" ref="BG5" si="29">BF5 - SUM(BG6:BG48)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BH5" s="12">
         <f t="shared" ref="BH5" si="30">BG5 - SUM(BH6:BH48)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BI5" s="12">
         <f t="shared" ref="BI5" si="31">BH5 - SUM(BI6:BI48)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BJ5" s="12">
         <f t="shared" ref="BJ5" si="32">BI5 - SUM(BJ6:BJ48)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BK5" s="12">
         <f t="shared" ref="BK5" si="33">BJ5 - SUM(BK6:BK48)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ref="BL5" si="34">BK5 - SUM(BL6:BL48)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BM5" s="12">
         <f t="shared" ref="BM5" si="35">BL5 - SUM(BM6:BM48)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BN5" s="12">
         <f t="shared" ref="BN5" si="36">BM5 - SUM(BN6:BN48)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BO5" s="12">
         <f t="shared" ref="BO5" si="37">BN5 - SUM(BO6:BO48)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BP5" s="12">
         <f t="shared" ref="BP5" si="38">BO5 - SUM(BP6:BP48)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BQ5" s="12">
         <f t="shared" ref="BQ5" si="39">BP5 - SUM(BQ6:BQ48)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BR5" s="12">
         <f t="shared" ref="BR5" si="40">BQ5 - SUM(BR6:BR48)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BS5" s="12">
         <f t="shared" ref="BS5" si="41">BR5 - SUM(BS6:BS48)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BT5" s="12">
         <f t="shared" ref="BT5" si="42">BS5 - SUM(BT6:BT48)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BU5" s="12">
         <f t="shared" ref="BU5" si="43">BT5 - SUM(BU6:BU48)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BV5" s="12">
         <f t="shared" ref="BV5" si="44">BU5 - SUM(BV6:BV48)</f>
@@ -3523,7 +3538,7 @@
       </c>
     </row>
     <row r="6" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="55" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="44" t="s">
@@ -3610,7 +3625,7 @@
       <c r="BW6" s="29"/>
     </row>
     <row r="7" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="44" t="s">
         <v>38</v>
       </c>
@@ -3697,7 +3712,7 @@
       <c r="BW7" s="29"/>
     </row>
     <row r="8" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="44" t="s">
         <v>36</v>
       </c>
@@ -3782,7 +3797,7 @@
       <c r="BW8" s="29"/>
     </row>
     <row r="9" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="44" t="s">
         <v>61</v>
       </c>
@@ -3873,7 +3888,7 @@
       <c r="BW9" s="29"/>
     </row>
     <row r="10" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="44" t="s">
         <v>39</v>
       </c>
@@ -3962,7 +3977,7 @@
       <c r="BW10" s="29"/>
     </row>
     <row r="11" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="45" t="s">
         <v>46</v>
       </c>
@@ -4049,7 +4064,7 @@
       <c r="BW11" s="29"/>
     </row>
     <row r="12" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="45" t="s">
         <v>60</v>
       </c>
@@ -4140,7 +4155,7 @@
       <c r="BW12" s="29"/>
     </row>
     <row r="13" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="45" t="s">
         <v>62</v>
       </c>
@@ -4231,7 +4246,7 @@
       <c r="BW13" s="29"/>
     </row>
     <row r="14" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="45" t="s">
         <v>105</v>
       </c>
@@ -4322,7 +4337,7 @@
       <c r="BW14" s="29"/>
     </row>
     <row r="15" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="45" t="s">
         <v>104</v>
       </c>
@@ -4407,7 +4422,7 @@
       <c r="BW15" s="29"/>
     </row>
     <row r="16" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="49" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -4496,7 +4511,7 @@
       <c r="BW16" s="29"/>
     </row>
     <row r="17" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
@@ -4585,7 +4600,7 @@
       <c r="BW17" s="29"/>
     </row>
     <row r="18" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -4674,7 +4689,7 @@
       <c r="BW18" s="29"/>
     </row>
     <row r="19" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -4763,7 +4778,7 @@
       <c r="BW19" s="29"/>
     </row>
     <row r="20" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="46" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -4854,7 +4869,7 @@
       <c r="BW20" s="29"/>
     </row>
     <row r="21" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="44" t="s">
         <v>71</v>
       </c>
@@ -4943,7 +4958,7 @@
       <c r="BW21" s="29"/>
     </row>
     <row r="22" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -5034,7 +5049,7 @@
       <c r="BW22" s="29"/>
     </row>
     <row r="23" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
@@ -5123,7 +5138,7 @@
       <c r="BW23" s="29"/>
     </row>
     <row r="24" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
@@ -5212,7 +5227,7 @@
       <c r="BW24" s="29"/>
     </row>
     <row r="25" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="14" t="s">
         <v>83</v>
       </c>
@@ -5301,7 +5316,7 @@
       </c>
     </row>
     <row r="26" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="39" t="s">
         <v>85</v>
       </c>
@@ -5390,7 +5405,7 @@
       <c r="BW26" s="29"/>
     </row>
     <row r="27" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="39" t="s">
         <v>86</v>
       </c>
@@ -5479,7 +5494,7 @@
       <c r="BW27" s="29"/>
     </row>
     <row r="28" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="39" t="s">
         <v>87</v>
       </c>
@@ -5568,7 +5583,7 @@
       <c r="BW28" s="29"/>
     </row>
     <row r="29" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="39" t="s">
         <v>88</v>
       </c>
@@ -5657,7 +5672,7 @@
       <c r="BW29" s="29"/>
     </row>
     <row r="30" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="51" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="39" t="s">
@@ -5748,7 +5763,7 @@
       <c r="BW30" s="29"/>
     </row>
     <row r="31" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="39" t="s">
         <v>90</v>
       </c>
@@ -5837,7 +5852,7 @@
       <c r="BW31" s="29"/>
     </row>
     <row r="32" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="39" t="s">
         <v>91</v>
       </c>
@@ -5926,7 +5941,7 @@
       <c r="BW32" s="29"/>
     </row>
     <row r="33" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="39" t="s">
         <v>92</v>
       </c>
@@ -6013,7 +6028,7 @@
       <c r="BW33" s="29"/>
     </row>
     <row r="34" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="39" t="s">
         <v>93</v>
       </c>
@@ -6102,7 +6117,7 @@
       <c r="BW34" s="29"/>
     </row>
     <row r="35" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="39" t="s">
         <v>94</v>
       </c>
@@ -6191,7 +6206,7 @@
       <c r="BW35" s="29"/>
     </row>
     <row r="36" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="39" t="s">
         <v>95</v>
       </c>
@@ -6280,7 +6295,7 @@
       <c r="BW36" s="29"/>
     </row>
     <row r="37" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="39" t="s">
         <v>96</v>
       </c>
@@ -6369,7 +6384,7 @@
       <c r="BW37" s="29"/>
     </row>
     <row r="38" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="39" t="s">
         <v>97</v>
       </c>
@@ -6456,7 +6471,7 @@
       <c r="BW38" s="29"/>
     </row>
     <row r="39" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="39" t="s">
         <v>98</v>
       </c>
@@ -6545,7 +6560,7 @@
       <c r="BW39" s="29"/>
     </row>
     <row r="40" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="39" t="s">
         <v>99</v>
       </c>
@@ -6634,7 +6649,7 @@
       <c r="BW40" s="29"/>
     </row>
     <row r="41" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="39" t="s">
         <v>100</v>
       </c>
@@ -6723,7 +6738,7 @@
       <c r="BW41" s="29"/>
     </row>
     <row r="42" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="51" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -6814,7 +6829,7 @@
       <c r="BW42" s="29"/>
     </row>
     <row r="43" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="14" t="s">
         <v>75</v>
       </c>
@@ -6903,7 +6918,7 @@
       <c r="BW43" s="29"/>
     </row>
     <row r="44" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="14" t="s">
         <v>76</v>
       </c>
@@ -6992,7 +7007,7 @@
       <c r="BW44" s="29"/>
     </row>
     <row r="45" spans="1:75" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="14" t="s">
         <v>77</v>
       </c>
@@ -7081,7 +7096,7 @@
       <c r="BW45" s="29"/>
     </row>
     <row r="46" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="14" t="s">
         <v>78</v>
       </c>
@@ -7170,7 +7185,7 @@
       <c r="BW46" s="29"/>
     </row>
     <row r="47" spans="1:75" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="14" t="s">
         <v>79</v>
       </c>
@@ -7262,7 +7277,7 @@
       <c r="A48" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="14">
@@ -7301,14 +7316,10 @@
       <c r="AD48" s="29"/>
       <c r="AE48" s="29"/>
       <c r="AF48" s="29"/>
-      <c r="AG48" s="29">
-        <v>2</v>
-      </c>
+      <c r="AG48" s="29"/>
       <c r="AH48" s="24"/>
       <c r="AI48" s="25"/>
-      <c r="AJ48" s="25">
-        <v>2</v>
-      </c>
+      <c r="AJ48" s="25"/>
       <c r="AK48" s="26"/>
       <c r="AL48" s="26"/>
       <c r="AM48" s="26"/>
@@ -7342,11 +7353,15 @@
       <c r="BO48" s="26"/>
       <c r="BP48" s="27"/>
       <c r="BQ48" s="28"/>
-      <c r="BR48" s="29"/>
+      <c r="BR48" s="29">
+        <v>2</v>
+      </c>
       <c r="BS48" s="29"/>
       <c r="BT48" s="29"/>
       <c r="BU48" s="29"/>
-      <c r="BV48" s="29"/>
+      <c r="BV48" s="29">
+        <v>2</v>
+      </c>
       <c r="BW48" s="29"/>
     </row>
     <row r="49" spans="1:63" ht="13.2" x14ac:dyDescent="0.25">
@@ -33065,11 +33080,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A42:A47"/>
     <mergeCell ref="BQ1:BW1"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="AO1:AU1"/>
@@ -33085,6 +33095,11 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A42:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33098,8 +33113,8 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
